--- a/issues+history/通过多个点绘制函数图像.xlsx
+++ b/issues+history/通过多个点绘制函数图像.xlsx
@@ -3,21 +3,22 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11012"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67137B15-CB11-A640-BAD8-4DA15EABA12D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52C9EF88-18DE-A244-BA5A-FB6F426FE4A8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="20480" windowHeight="12300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="20480" windowHeight="12300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="幂函数" sheetId="1" r:id="rId1"/>
     <sheet name="线性函数" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="过一个点的线性函数" sheetId="3" r:id="rId3"/>
+    <sheet name="过一个点的斜率不同的直线" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="55">
   <si>
     <t>y=x^2</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -114,12 +115,134 @@
     <t>y=3x</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>y=x^2+2</t>
+  </si>
+  <si>
+    <t>y=x^2+3</t>
+  </si>
+  <si>
+    <t>y=x+2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y=2x+2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y=3x+2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y=4x+2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y=0*x+2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y=-x+2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y=-2x+2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y=-3x+2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y=-4x+2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y=x/10+2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y=5x+2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y=6x+2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y=7x+2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y=8x+2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y=9x+2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y=10x+2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y=11x+2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y=12x+2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y=13x+2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y=14x+2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y=15x+2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y=20x+2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y=25x+2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y=30x+2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y=35x+2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y=40x+2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y=45x+2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y=x/2+2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y=x/5+2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -152,6 +275,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -161,7 +292,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -231,11 +362,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -257,6 +425,20 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -597,8 +779,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W41"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26:E26"/>
+    <sheetView tabSelected="1" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -620,9 +802,10 @@
       </c>
     </row>
     <row r="2" spans="1:23">
-      <c r="C2" s="1" t="s">
+      <c r="B2" t="s">
         <v>0</v>
       </c>
+      <c r="C2" s="1"/>
     </row>
     <row r="3" spans="1:23">
       <c r="A3" s="9"/>
@@ -788,14 +971,13 @@
       <c r="E5" s="9"/>
     </row>
     <row r="6" spans="1:23">
-      <c r="B6" s="2"/>
-      <c r="C6" s="1" t="s">
+      <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:23">
-      <c r="B7" s="3" t="s">
-        <v>2</v>
+      <c r="B7" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="C7" s="4">
         <f t="shared" ref="C7:W7" si="1">C8^2+1</f>
@@ -883,8 +1065,8 @@
       </c>
     </row>
     <row r="8" spans="1:23">
-      <c r="B8" s="6" t="s">
-        <v>1</v>
+      <c r="B8" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="C8" s="7">
         <v>0</v>
@@ -954,8 +1136,7 @@
       <c r="B9" s="2"/>
     </row>
     <row r="10" spans="1:23">
-      <c r="B10" s="2"/>
-      <c r="C10" s="1" t="s">
+      <c r="B10" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1120,8 +1301,7 @@
       <c r="B13" s="2"/>
     </row>
     <row r="14" spans="1:23">
-      <c r="B14" s="2"/>
-      <c r="C14" s="1" t="s">
+      <c r="B14" s="1" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1286,8 +1466,7 @@
       <c r="B17" s="2"/>
     </row>
     <row r="18" spans="2:23">
-      <c r="B18" s="2"/>
-      <c r="C18" s="1" t="s">
+      <c r="B18" s="1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1452,8 +1631,7 @@
       <c r="B21" s="2"/>
     </row>
     <row r="22" spans="2:23">
-      <c r="B22" s="2"/>
-      <c r="C22" s="1" t="s">
+      <c r="B22" s="1" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1620,7 +1798,7 @@
       </c>
     </row>
     <row r="27" spans="2:23">
-      <c r="C27" s="1" t="s">
+      <c r="B27" s="1" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1782,7 +1960,7 @@
       </c>
     </row>
     <row r="31" spans="2:23">
-      <c r="C31" s="1" t="s">
+      <c r="B31" s="1" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1944,7 +2122,7 @@
       </c>
     </row>
     <row r="35" spans="2:23">
-      <c r="C35" s="1" t="s">
+      <c r="B35" s="1" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2106,7 +2284,7 @@
       </c>
     </row>
     <row r="39" spans="2:23">
-      <c r="C39" s="1" t="s">
+      <c r="B39" s="1" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2163,7 +2341,7 @@
         <v>2.0957814771583418</v>
       </c>
       <c r="O40" s="4">
-        <f t="shared" ref="O40:W40" si="32">(SQRT(3))*(O41^2)</f>
+        <f t="shared" ref="O40:S40" si="32">(SQRT(3))*(O41^2)</f>
         <v>2.4941531628991829</v>
       </c>
       <c r="P40" s="4">
@@ -2277,8 +2455,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Y49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="K38" sqref="K38"/>
+    <sheetView topLeftCell="A30" zoomScale="125" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -2289,7 +2467,7 @@
     <col min="4" max="9" width="5.83203125" customWidth="1"/>
     <col min="10" max="10" width="6" customWidth="1"/>
     <col min="11" max="12" width="5.83203125" customWidth="1"/>
-    <col min="13" max="13" width="3.1640625" customWidth="1"/>
+    <col min="13" max="13" width="4.83203125" customWidth="1"/>
     <col min="14" max="14" width="6.33203125" customWidth="1"/>
     <col min="15" max="22" width="5.83203125" customWidth="1"/>
     <col min="23" max="23" width="4.5" customWidth="1"/>
@@ -2301,7 +2479,7 @@
       </c>
     </row>
     <row r="2" spans="1:23">
-      <c r="C2" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2311,7 +2489,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="4">
-        <f t="shared" ref="C3:M3" si="0">C4</f>
+        <f t="shared" ref="C3:W3" si="0">C4</f>
         <v>0</v>
       </c>
       <c r="D3" s="4">
@@ -2355,43 +2533,43 @@
         <v>10</v>
       </c>
       <c r="N3" s="4">
-        <f>N4</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="O3" s="4">
-        <f t="shared" ref="O3:W3" si="1">O4</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="P3" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="Q3" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="R3" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="S3" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="T3" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="U3" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="V3" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="W3" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
     </row>
@@ -2469,8 +2647,7 @@
       <c r="E5" s="9"/>
     </row>
     <row r="6" spans="1:23">
-      <c r="B6" s="2"/>
-      <c r="C6" s="1" t="s">
+      <c r="B6" s="1" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2483,83 +2660,83 @@
         <v>3</v>
       </c>
       <c r="D7" s="4">
-        <f t="shared" ref="D7:W7" si="2">D8+3</f>
+        <f t="shared" ref="D7:W7" si="1">D8+3</f>
         <v>4</v>
       </c>
       <c r="E7" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="F7" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="G7" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="H7" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="I7" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="J7" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="K7" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="L7" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="M7" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="N7" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="O7" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="P7" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="Q7" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
       <c r="R7" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="S7" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
       <c r="T7" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="U7" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>21</v>
       </c>
       <c r="V7" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>22</v>
       </c>
       <c r="W7" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>23</v>
       </c>
     </row>
@@ -2635,8 +2812,7 @@
       <c r="B9" s="2"/>
     </row>
     <row r="10" spans="1:23">
-      <c r="B10" s="2"/>
-      <c r="C10" s="1" t="s">
+      <c r="B10" s="1" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2649,55 +2825,55 @@
         <v>-5</v>
       </c>
       <c r="D11" s="4">
-        <f t="shared" ref="D11:W11" si="3">D12-5</f>
+        <f t="shared" ref="D11:W11" si="2">D12-5</f>
         <v>-4</v>
       </c>
       <c r="E11" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>-3</v>
       </c>
       <c r="F11" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>-2</v>
       </c>
       <c r="G11" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>-1</v>
       </c>
       <c r="H11" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I11" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J11" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="K11" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="L11" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="M11" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="N11" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="O11" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="P11" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="Q11" s="4">
@@ -2705,27 +2881,27 @@
         <v>9</v>
       </c>
       <c r="R11" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="S11" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="T11" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="U11" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>13</v>
       </c>
       <c r="V11" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
       <c r="W11" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
     </row>
@@ -2827,8 +3003,7 @@
       </c>
     </row>
     <row r="15" spans="1:23">
-      <c r="B15" s="2"/>
-      <c r="C15" s="1" t="s">
+      <c r="B15" s="1" t="s">
         <v>14</v>
       </c>
     </row>
@@ -2837,43 +3012,43 @@
         <v>2</v>
       </c>
       <c r="C16" s="4">
-        <f t="shared" ref="C16:L16" si="4">(1/2)*C17</f>
+        <f t="shared" ref="C16:L16" si="3">(1/2)*C17</f>
         <v>0</v>
       </c>
       <c r="D16" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
       <c r="E16" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="F16" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1.5</v>
       </c>
       <c r="G16" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="H16" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2.5</v>
       </c>
       <c r="I16" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="J16" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>3.5</v>
       </c>
       <c r="K16" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="L16" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>4.5</v>
       </c>
       <c r="M16" s="4">
@@ -2881,43 +3056,43 @@
         <v>5</v>
       </c>
       <c r="N16" s="4">
-        <f t="shared" ref="N16:W16" si="5">(1/2)*N17</f>
+        <f t="shared" ref="N16:W16" si="4">(1/2)*N17</f>
         <v>5.5</v>
       </c>
       <c r="O16" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="P16" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>6.5</v>
       </c>
       <c r="Q16" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="R16" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>7.5</v>
       </c>
       <c r="S16" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="T16" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>8.5</v>
       </c>
       <c r="U16" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="V16" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>9.5</v>
       </c>
       <c r="W16" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
     </row>
@@ -2993,8 +3168,7 @@
       <c r="B18" s="2"/>
     </row>
     <row r="19" spans="1:25">
-      <c r="B19" s="2"/>
-      <c r="C19" s="1" t="s">
+      <c r="B19" s="1" t="s">
         <v>19</v>
       </c>
     </row>
@@ -3007,51 +3181,51 @@
         <v>0</v>
       </c>
       <c r="D20" s="4">
-        <f t="shared" ref="D20:W20" si="6">(1/4)*D21</f>
+        <f t="shared" ref="D20:W20" si="5">(1/4)*D21</f>
         <v>0.25</v>
       </c>
       <c r="E20" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0.5</v>
       </c>
       <c r="F20" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0.75</v>
       </c>
       <c r="G20" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="H20" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1.25</v>
       </c>
       <c r="I20" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1.5</v>
       </c>
       <c r="J20" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1.75</v>
       </c>
       <c r="K20" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="L20" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>2.25</v>
       </c>
       <c r="M20" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>2.5</v>
       </c>
       <c r="N20" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>2.75</v>
       </c>
       <c r="O20" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="P20" s="4">
@@ -3059,31 +3233,31 @@
         <v>3.25</v>
       </c>
       <c r="Q20" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>3.5</v>
       </c>
       <c r="R20" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>3.75</v>
       </c>
       <c r="S20" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="T20" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>4.25</v>
       </c>
       <c r="U20" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>4.5</v>
       </c>
       <c r="V20" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>4.75</v>
       </c>
       <c r="W20" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
     </row>
@@ -3159,8 +3333,7 @@
       <c r="B22" s="2"/>
     </row>
     <row r="23" spans="1:25">
-      <c r="B23" s="2"/>
-      <c r="C23" s="1" t="s">
+      <c r="B23" s="1" t="s">
         <v>20</v>
       </c>
     </row>
@@ -3173,83 +3346,83 @@
         <v>0</v>
       </c>
       <c r="D24" s="4">
-        <f t="shared" ref="D24:W24" si="7">(1/8)*D25</f>
+        <f t="shared" ref="D24:W24" si="6">(1/8)*D25</f>
         <v>0.125</v>
       </c>
       <c r="E24" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0.25</v>
       </c>
       <c r="F24" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0.375</v>
       </c>
       <c r="G24" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0.5</v>
       </c>
       <c r="H24" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0.625</v>
       </c>
       <c r="I24" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0.75</v>
       </c>
       <c r="J24" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0.875</v>
       </c>
       <c r="K24" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="L24" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1.125</v>
       </c>
       <c r="M24" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1.25</v>
       </c>
       <c r="N24" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1.375</v>
       </c>
       <c r="O24" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1.5</v>
       </c>
       <c r="P24" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1.625</v>
       </c>
       <c r="Q24" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1.75</v>
       </c>
       <c r="R24" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1.875</v>
       </c>
       <c r="S24" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="T24" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>2.125</v>
       </c>
       <c r="U24" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>2.25</v>
       </c>
       <c r="V24" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>2.375</v>
       </c>
       <c r="W24" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>2.5</v>
       </c>
     </row>
@@ -3323,8 +3496,7 @@
     </row>
     <row r="27" spans="1:25">
       <c r="A27" s="9"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="12" t="s">
+      <c r="B27" s="12" t="s">
         <v>21</v>
       </c>
       <c r="X27" s="9"/>
@@ -3340,51 +3512,51 @@
         <v>0</v>
       </c>
       <c r="D28" s="4">
-        <f t="shared" ref="D28:W28" si="8">2*D29</f>
+        <f t="shared" ref="D28:W28" si="7">2*D29</f>
         <v>2</v>
       </c>
       <c r="E28" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="F28" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="G28" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
       <c r="H28" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="I28" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>12</v>
       </c>
       <c r="J28" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>14</v>
       </c>
       <c r="K28" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>16</v>
       </c>
       <c r="L28" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>18</v>
       </c>
       <c r="M28" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>20</v>
       </c>
       <c r="N28" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>22</v>
       </c>
       <c r="O28" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>24</v>
       </c>
       <c r="P28" s="4">
@@ -3392,31 +3564,31 @@
         <v>26</v>
       </c>
       <c r="Q28" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>28</v>
       </c>
       <c r="R28" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>30</v>
       </c>
       <c r="S28" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>32</v>
       </c>
       <c r="T28" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>34</v>
       </c>
       <c r="U28" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>36</v>
       </c>
       <c r="V28" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>38</v>
       </c>
       <c r="W28" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>40</v>
       </c>
       <c r="X28" s="9"/>
@@ -3501,8 +3673,7 @@
     </row>
     <row r="31" spans="1:25">
       <c r="A31" s="9"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="12" t="s">
+      <c r="B31" s="12" t="s">
         <v>23</v>
       </c>
       <c r="X31" s="9"/>
@@ -3518,51 +3689,51 @@
         <v>0</v>
       </c>
       <c r="D32" s="4">
-        <f t="shared" ref="D32:W32" si="9">3*D33</f>
+        <f t="shared" ref="D32:W32" si="8">3*D33</f>
         <v>3</v>
       </c>
       <c r="E32" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
       <c r="F32" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>9</v>
       </c>
       <c r="G32" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>12</v>
       </c>
       <c r="H32" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>15</v>
       </c>
       <c r="I32" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>18</v>
       </c>
       <c r="J32" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>21</v>
       </c>
       <c r="K32" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>24</v>
       </c>
       <c r="L32" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>27</v>
       </c>
       <c r="M32" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>30</v>
       </c>
       <c r="N32" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>33</v>
       </c>
       <c r="O32" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>36</v>
       </c>
       <c r="P32" s="4">
@@ -3570,31 +3741,31 @@
         <v>39</v>
       </c>
       <c r="Q32" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>42</v>
       </c>
       <c r="R32" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>45</v>
       </c>
       <c r="S32" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>48</v>
       </c>
       <c r="T32" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>51</v>
       </c>
       <c r="U32" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>54</v>
       </c>
       <c r="V32" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>57</v>
       </c>
       <c r="W32" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>60</v>
       </c>
       <c r="X32" s="9"/>
@@ -3700,8 +3871,7 @@
     </row>
     <row r="35" spans="1:25">
       <c r="A35" s="9"/>
-      <c r="B35" s="2"/>
-      <c r="C35" s="12" t="s">
+      <c r="B35" s="12" t="s">
         <v>22</v>
       </c>
       <c r="X35" s="9"/>
@@ -3717,83 +3887,83 @@
         <v>0</v>
       </c>
       <c r="D36" s="4">
-        <f t="shared" ref="D36:W36" si="10">4*D37</f>
+        <f t="shared" ref="D36:W36" si="9">4*D37</f>
         <v>4</v>
       </c>
       <c r="E36" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>8</v>
       </c>
       <c r="F36" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>12</v>
       </c>
       <c r="G36" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>16</v>
       </c>
       <c r="H36" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>20</v>
       </c>
       <c r="I36" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>24</v>
       </c>
       <c r="J36" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>28</v>
       </c>
       <c r="K36" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>32</v>
       </c>
       <c r="L36" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>36</v>
       </c>
       <c r="M36" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>40</v>
       </c>
       <c r="N36" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>44</v>
       </c>
       <c r="O36" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>48</v>
       </c>
       <c r="P36" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>52</v>
       </c>
       <c r="Q36" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>56</v>
       </c>
       <c r="R36" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>60</v>
       </c>
       <c r="S36" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>64</v>
       </c>
       <c r="T36" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>68</v>
       </c>
       <c r="U36" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>72</v>
       </c>
       <c r="V36" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>76</v>
       </c>
       <c r="W36" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>80</v>
       </c>
       <c r="X36" s="9"/>
@@ -4202,12 +4372,1338 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A3:W12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="133" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="7.83203125" customWidth="1"/>
+    <col min="2" max="2" width="2.83203125" customWidth="1"/>
+    <col min="3" max="23" width="3.83203125" customWidth="1"/>
+    <col min="24" max="24" width="5.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:23">
+      <c r="A3" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="4">
+        <f>4*C12+2</f>
+        <v>2</v>
+      </c>
+      <c r="D3" s="4">
+        <f t="shared" ref="D3:W3" si="0">4*D12+2</f>
+        <v>6</v>
+      </c>
+      <c r="E3" s="4">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="F3" s="4">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="G3" s="4">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="H3" s="4">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="I3" s="4">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="J3" s="4">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="K3" s="4">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="L3" s="4">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="M3" s="4">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="N3" s="4">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="O3" s="4">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="P3" s="4">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="Q3" s="4">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+      <c r="R3" s="4">
+        <f t="shared" si="0"/>
+        <v>62</v>
+      </c>
+      <c r="S3" s="4">
+        <f t="shared" si="0"/>
+        <v>66</v>
+      </c>
+      <c r="T3" s="4">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="U3" s="4">
+        <f t="shared" si="0"/>
+        <v>74</v>
+      </c>
+      <c r="V3" s="4">
+        <f t="shared" si="0"/>
+        <v>78</v>
+      </c>
+      <c r="W3" s="5">
+        <f t="shared" si="0"/>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23">
+      <c r="A4" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="4">
+        <f>3*C12+2</f>
+        <v>2</v>
+      </c>
+      <c r="D4" s="4">
+        <f t="shared" ref="D4:W4" si="1">3*D12+2</f>
+        <v>5</v>
+      </c>
+      <c r="E4" s="4">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="F4" s="4">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="G4" s="4">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="H4" s="4">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="I4" s="4">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="J4" s="4">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="K4" s="4">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+      <c r="L4" s="4">
+        <f t="shared" si="1"/>
+        <v>29</v>
+      </c>
+      <c r="M4" s="4">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+      <c r="N4" s="4">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="O4" s="4">
+        <f t="shared" si="1"/>
+        <v>38</v>
+      </c>
+      <c r="P4" s="4">
+        <f t="shared" si="1"/>
+        <v>41</v>
+      </c>
+      <c r="Q4" s="4">
+        <f>3*Q12+2</f>
+        <v>44</v>
+      </c>
+      <c r="R4" s="4">
+        <f t="shared" si="1"/>
+        <v>47</v>
+      </c>
+      <c r="S4" s="4">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="T4" s="4">
+        <f t="shared" si="1"/>
+        <v>53</v>
+      </c>
+      <c r="U4" s="4">
+        <f t="shared" si="1"/>
+        <v>56</v>
+      </c>
+      <c r="V4" s="4">
+        <f t="shared" si="1"/>
+        <v>59</v>
+      </c>
+      <c r="W4" s="5">
+        <f t="shared" si="1"/>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23">
+      <c r="A5" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="4">
+        <f>2*C12+2</f>
+        <v>2</v>
+      </c>
+      <c r="D5" s="4">
+        <f t="shared" ref="D5:W5" si="2">2*D12+2</f>
+        <v>4</v>
+      </c>
+      <c r="E5" s="4">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="F5" s="4">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="G5" s="4">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="H5" s="4">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="I5" s="4">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="J5" s="4">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="K5" s="4">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="L5" s="4">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="M5" s="4">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
+      <c r="N5" s="4">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="O5" s="4">
+        <f t="shared" si="2"/>
+        <v>26</v>
+      </c>
+      <c r="P5" s="4">
+        <f>2*P12+2</f>
+        <v>28</v>
+      </c>
+      <c r="Q5" s="4">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="R5" s="4">
+        <f t="shared" si="2"/>
+        <v>32</v>
+      </c>
+      <c r="S5" s="4">
+        <f t="shared" si="2"/>
+        <v>34</v>
+      </c>
+      <c r="T5" s="4">
+        <f t="shared" si="2"/>
+        <v>36</v>
+      </c>
+      <c r="U5" s="4">
+        <f t="shared" si="2"/>
+        <v>38</v>
+      </c>
+      <c r="V5" s="4">
+        <f t="shared" si="2"/>
+        <v>40</v>
+      </c>
+      <c r="W5" s="5">
+        <f t="shared" si="2"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23">
+      <c r="A6" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="4">
+        <f>C12+2</f>
+        <v>2</v>
+      </c>
+      <c r="D6" s="4">
+        <f t="shared" ref="D6:W6" si="3">D12+2</f>
+        <v>3</v>
+      </c>
+      <c r="E6" s="4">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="F6" s="4">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="G6" s="4">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="H6" s="4">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="I6" s="4">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="J6" s="4">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="K6" s="4">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="L6" s="4">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+      <c r="M6" s="4">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="N6" s="4">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="O6" s="4">
+        <f t="shared" si="3"/>
+        <v>14</v>
+      </c>
+      <c r="P6" s="4">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+      <c r="Q6" s="4">
+        <f>Q12+2</f>
+        <v>16</v>
+      </c>
+      <c r="R6" s="4">
+        <f t="shared" si="3"/>
+        <v>17</v>
+      </c>
+      <c r="S6" s="4">
+        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
+      <c r="T6" s="4">
+        <f t="shared" si="3"/>
+        <v>19</v>
+      </c>
+      <c r="U6" s="4">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+      <c r="V6" s="4">
+        <f t="shared" si="3"/>
+        <v>21</v>
+      </c>
+      <c r="W6" s="5">
+        <f t="shared" si="3"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23">
+      <c r="A7" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="4">
+        <f>0*C12+2</f>
+        <v>2</v>
+      </c>
+      <c r="D7" s="4">
+        <f t="shared" ref="D7:W7" si="4">0*D12+2</f>
+        <v>2</v>
+      </c>
+      <c r="E7" s="4">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="F7" s="4">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="G7" s="4">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="H7" s="4">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="I7" s="4">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="J7" s="4">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="K7" s="4">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="L7" s="4">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="M7" s="4">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="N7" s="4">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="O7" s="4">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="P7" s="4">
+        <f>0*P12+2</f>
+        <v>2</v>
+      </c>
+      <c r="Q7" s="4">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="R7" s="4">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="S7" s="4">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="T7" s="4">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="U7" s="4">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="V7" s="4">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="W7" s="5">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23">
+      <c r="A8" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="4">
+        <f>-C12+2</f>
+        <v>2</v>
+      </c>
+      <c r="D8" s="4">
+        <f t="shared" ref="D8:W8" si="5">-D12+2</f>
+        <v>1</v>
+      </c>
+      <c r="E8" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F8" s="4">
+        <f t="shared" si="5"/>
+        <v>-1</v>
+      </c>
+      <c r="G8" s="4">
+        <f t="shared" si="5"/>
+        <v>-2</v>
+      </c>
+      <c r="H8" s="4">
+        <f t="shared" si="5"/>
+        <v>-3</v>
+      </c>
+      <c r="I8" s="4">
+        <f t="shared" si="5"/>
+        <v>-4</v>
+      </c>
+      <c r="J8" s="4">
+        <f t="shared" si="5"/>
+        <v>-5</v>
+      </c>
+      <c r="K8" s="4">
+        <f t="shared" si="5"/>
+        <v>-6</v>
+      </c>
+      <c r="L8" s="4">
+        <f t="shared" si="5"/>
+        <v>-7</v>
+      </c>
+      <c r="M8" s="4">
+        <f t="shared" si="5"/>
+        <v>-8</v>
+      </c>
+      <c r="N8" s="4">
+        <f t="shared" si="5"/>
+        <v>-9</v>
+      </c>
+      <c r="O8" s="4">
+        <f t="shared" si="5"/>
+        <v>-10</v>
+      </c>
+      <c r="P8" s="4">
+        <f>-P12+2</f>
+        <v>-11</v>
+      </c>
+      <c r="Q8" s="4">
+        <f t="shared" si="5"/>
+        <v>-12</v>
+      </c>
+      <c r="R8" s="4">
+        <f t="shared" si="5"/>
+        <v>-13</v>
+      </c>
+      <c r="S8" s="4">
+        <f t="shared" si="5"/>
+        <v>-14</v>
+      </c>
+      <c r="T8" s="4">
+        <f t="shared" si="5"/>
+        <v>-15</v>
+      </c>
+      <c r="U8" s="4">
+        <f t="shared" si="5"/>
+        <v>-16</v>
+      </c>
+      <c r="V8" s="4">
+        <f t="shared" si="5"/>
+        <v>-17</v>
+      </c>
+      <c r="W8" s="5">
+        <f t="shared" si="5"/>
+        <v>-18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23">
+      <c r="A9" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="4">
+        <f>-2*C12+2</f>
+        <v>2</v>
+      </c>
+      <c r="D9" s="4">
+        <f t="shared" ref="D9:W9" si="6">-2*D12+2</f>
+        <v>0</v>
+      </c>
+      <c r="E9" s="4">
+        <f t="shared" si="6"/>
+        <v>-2</v>
+      </c>
+      <c r="F9" s="4">
+        <f t="shared" si="6"/>
+        <v>-4</v>
+      </c>
+      <c r="G9" s="4">
+        <f t="shared" si="6"/>
+        <v>-6</v>
+      </c>
+      <c r="H9" s="4">
+        <f t="shared" si="6"/>
+        <v>-8</v>
+      </c>
+      <c r="I9" s="4">
+        <f t="shared" si="6"/>
+        <v>-10</v>
+      </c>
+      <c r="J9" s="4">
+        <f t="shared" si="6"/>
+        <v>-12</v>
+      </c>
+      <c r="K9" s="4">
+        <f t="shared" si="6"/>
+        <v>-14</v>
+      </c>
+      <c r="L9" s="4">
+        <f t="shared" si="6"/>
+        <v>-16</v>
+      </c>
+      <c r="M9" s="4">
+        <f t="shared" si="6"/>
+        <v>-18</v>
+      </c>
+      <c r="N9" s="4">
+        <f t="shared" si="6"/>
+        <v>-20</v>
+      </c>
+      <c r="O9" s="4">
+        <f t="shared" si="6"/>
+        <v>-22</v>
+      </c>
+      <c r="P9" s="4">
+        <f t="shared" si="6"/>
+        <v>-24</v>
+      </c>
+      <c r="Q9" s="4">
+        <f t="shared" si="6"/>
+        <v>-26</v>
+      </c>
+      <c r="R9" s="4">
+        <f t="shared" si="6"/>
+        <v>-28</v>
+      </c>
+      <c r="S9" s="4">
+        <f t="shared" si="6"/>
+        <v>-30</v>
+      </c>
+      <c r="T9" s="4">
+        <f t="shared" si="6"/>
+        <v>-32</v>
+      </c>
+      <c r="U9" s="4">
+        <f>-2*U12+2</f>
+        <v>-34</v>
+      </c>
+      <c r="V9" s="4">
+        <f t="shared" si="6"/>
+        <v>-36</v>
+      </c>
+      <c r="W9" s="5">
+        <f t="shared" si="6"/>
+        <v>-38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23">
+      <c r="A10" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="13">
+        <f>-3*C12+2</f>
+        <v>2</v>
+      </c>
+      <c r="D10" s="13">
+        <f t="shared" ref="D10:T10" si="7">-3*D12+2</f>
+        <v>-1</v>
+      </c>
+      <c r="E10" s="13">
+        <f t="shared" si="7"/>
+        <v>-4</v>
+      </c>
+      <c r="F10" s="13">
+        <f t="shared" si="7"/>
+        <v>-7</v>
+      </c>
+      <c r="G10" s="13">
+        <f t="shared" si="7"/>
+        <v>-10</v>
+      </c>
+      <c r="H10" s="13">
+        <f t="shared" si="7"/>
+        <v>-13</v>
+      </c>
+      <c r="I10" s="13">
+        <f t="shared" si="7"/>
+        <v>-16</v>
+      </c>
+      <c r="J10" s="13">
+        <f t="shared" si="7"/>
+        <v>-19</v>
+      </c>
+      <c r="K10" s="13">
+        <f t="shared" si="7"/>
+        <v>-22</v>
+      </c>
+      <c r="L10" s="13">
+        <f t="shared" si="7"/>
+        <v>-25</v>
+      </c>
+      <c r="M10" s="13">
+        <f t="shared" si="7"/>
+        <v>-28</v>
+      </c>
+      <c r="N10" s="13">
+        <f t="shared" si="7"/>
+        <v>-31</v>
+      </c>
+      <c r="O10" s="13">
+        <f t="shared" si="7"/>
+        <v>-34</v>
+      </c>
+      <c r="P10" s="13">
+        <f t="shared" si="7"/>
+        <v>-37</v>
+      </c>
+      <c r="Q10" s="13">
+        <f t="shared" si="7"/>
+        <v>-40</v>
+      </c>
+      <c r="R10" s="13">
+        <f t="shared" si="7"/>
+        <v>-43</v>
+      </c>
+      <c r="S10" s="13">
+        <f t="shared" si="7"/>
+        <v>-46</v>
+      </c>
+      <c r="T10" s="13">
+        <f t="shared" si="7"/>
+        <v>-49</v>
+      </c>
+      <c r="U10" s="13">
+        <f>-3*U12+2</f>
+        <v>-52</v>
+      </c>
+      <c r="V10" s="13">
+        <f t="shared" ref="V10" si="8">-3*V12+2</f>
+        <v>-55</v>
+      </c>
+      <c r="W10" s="14">
+        <f t="shared" ref="W10" si="9">-3*W12+2</f>
+        <v>-58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23">
+      <c r="A11" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="13">
+        <f>-4*C12+2</f>
+        <v>2</v>
+      </c>
+      <c r="D11" s="13">
+        <f t="shared" ref="D11:W11" si="10">-4*D12+2</f>
+        <v>-2</v>
+      </c>
+      <c r="E11" s="13">
+        <f t="shared" si="10"/>
+        <v>-6</v>
+      </c>
+      <c r="F11" s="13">
+        <f t="shared" si="10"/>
+        <v>-10</v>
+      </c>
+      <c r="G11" s="13">
+        <f t="shared" si="10"/>
+        <v>-14</v>
+      </c>
+      <c r="H11" s="13">
+        <f t="shared" si="10"/>
+        <v>-18</v>
+      </c>
+      <c r="I11" s="13">
+        <f t="shared" si="10"/>
+        <v>-22</v>
+      </c>
+      <c r="J11" s="13">
+        <f t="shared" si="10"/>
+        <v>-26</v>
+      </c>
+      <c r="K11" s="13">
+        <f t="shared" si="10"/>
+        <v>-30</v>
+      </c>
+      <c r="L11" s="13">
+        <f t="shared" si="10"/>
+        <v>-34</v>
+      </c>
+      <c r="M11" s="13">
+        <f t="shared" si="10"/>
+        <v>-38</v>
+      </c>
+      <c r="N11" s="13">
+        <f t="shared" si="10"/>
+        <v>-42</v>
+      </c>
+      <c r="O11" s="13">
+        <f t="shared" si="10"/>
+        <v>-46</v>
+      </c>
+      <c r="P11" s="13">
+        <f t="shared" si="10"/>
+        <v>-50</v>
+      </c>
+      <c r="Q11" s="13">
+        <f t="shared" si="10"/>
+        <v>-54</v>
+      </c>
+      <c r="R11" s="13">
+        <f t="shared" si="10"/>
+        <v>-58</v>
+      </c>
+      <c r="S11" s="13">
+        <f t="shared" si="10"/>
+        <v>-62</v>
+      </c>
+      <c r="T11" s="13">
+        <f t="shared" si="10"/>
+        <v>-66</v>
+      </c>
+      <c r="U11" s="13">
+        <f t="shared" si="10"/>
+        <v>-70</v>
+      </c>
+      <c r="V11" s="13">
+        <f t="shared" si="10"/>
+        <v>-74</v>
+      </c>
+      <c r="W11" s="14">
+        <f t="shared" si="10"/>
+        <v>-78</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23">
+      <c r="A12" s="9"/>
+      <c r="B12" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="16">
+        <v>0</v>
+      </c>
+      <c r="D12" s="16">
+        <v>1</v>
+      </c>
+      <c r="E12" s="16">
+        <v>2</v>
+      </c>
+      <c r="F12" s="16">
+        <v>3</v>
+      </c>
+      <c r="G12" s="16">
+        <v>4</v>
+      </c>
+      <c r="H12" s="16">
+        <v>5</v>
+      </c>
+      <c r="I12" s="16">
+        <v>6</v>
+      </c>
+      <c r="J12" s="16">
+        <v>7</v>
+      </c>
+      <c r="K12" s="16">
+        <v>8</v>
+      </c>
+      <c r="L12" s="16">
+        <v>9</v>
+      </c>
+      <c r="M12" s="16">
+        <v>10</v>
+      </c>
+      <c r="N12" s="16">
+        <v>11</v>
+      </c>
+      <c r="O12" s="16">
+        <v>12</v>
+      </c>
+      <c r="P12" s="16">
+        <v>13</v>
+      </c>
+      <c r="Q12" s="16">
+        <v>14</v>
+      </c>
+      <c r="R12" s="16">
+        <v>15</v>
+      </c>
+      <c r="S12" s="16">
+        <v>16</v>
+      </c>
+      <c r="T12" s="16">
+        <v>17</v>
+      </c>
+      <c r="U12" s="16">
+        <v>18</v>
+      </c>
+      <c r="V12" s="16">
+        <v>19</v>
+      </c>
+      <c r="W12" s="17">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3107E846-15C1-5647-95A4-8C0C6DE4C6EE}">
+  <dimension ref="A1:D26"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" zoomScale="182" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="8.1640625" customWidth="1"/>
+    <col min="2" max="2" width="2.6640625" customWidth="1"/>
+    <col min="3" max="4" width="4.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="20"/>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="13">
+        <f>45*$C$26+2</f>
+        <v>2</v>
+      </c>
+      <c r="D2" s="14">
+        <f>45*$D$26+2</f>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="13">
+        <f>40*$C$26+2</f>
+        <v>2</v>
+      </c>
+      <c r="D3" s="14">
+        <f>40*$D$26+2</f>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="13">
+        <f>35*$C$26+2</f>
+        <v>2</v>
+      </c>
+      <c r="D4" s="14">
+        <f>35*$D$26+2</f>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="13">
+        <f>30*$C$26+2</f>
+        <v>2</v>
+      </c>
+      <c r="D5" s="14">
+        <f>30*$D$26+2</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="13">
+        <f>25*$C$26+2</f>
+        <v>2</v>
+      </c>
+      <c r="D6" s="14">
+        <f>25*$D$26+2</f>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="13">
+        <f>20*$C$26+2</f>
+        <v>2</v>
+      </c>
+      <c r="D7" s="14">
+        <f>20*$D$26+2</f>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="13">
+        <f>15*$C$26+2</f>
+        <v>2</v>
+      </c>
+      <c r="D8" s="14">
+        <f>15*$D$26+2</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="13">
+        <f>14*$C$26+2</f>
+        <v>2</v>
+      </c>
+      <c r="D9" s="14">
+        <f>14*$D$26+2</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="13">
+        <f>13*$C$26+2</f>
+        <v>2</v>
+      </c>
+      <c r="D10" s="14">
+        <f>13*$D$26+2</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="13">
+        <f>12*$C$26+2</f>
+        <v>2</v>
+      </c>
+      <c r="D11" s="14">
+        <f>12*$D$26+2</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" s="13">
+        <f>11*$C$26+2</f>
+        <v>2</v>
+      </c>
+      <c r="D12" s="14">
+        <f>11*$D$26+2</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" s="13">
+        <f>10*$C$26+2</f>
+        <v>2</v>
+      </c>
+      <c r="D13" s="14">
+        <f>10*$D$26+2</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" s="13">
+        <f>9*$C$26+2</f>
+        <v>2</v>
+      </c>
+      <c r="D14" s="14">
+        <f>9*$D$26+2</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" s="13">
+        <f>8*$C$26+2</f>
+        <v>2</v>
+      </c>
+      <c r="D15" s="14">
+        <f>8*$D$26+2</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" s="13">
+        <f>7*$C$26+2</f>
+        <v>2</v>
+      </c>
+      <c r="D16" s="14">
+        <f>7*$D$26+2</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17" s="13">
+        <f>6*$C$26+2</f>
+        <v>2</v>
+      </c>
+      <c r="D17" s="14">
+        <f>6*$D$26+2</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18" s="13">
+        <f>5*$C$26+2</f>
+        <v>2</v>
+      </c>
+      <c r="D18" s="14">
+        <f>5*$D$26+2</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C19" s="13">
+        <f>4*$C$26+2</f>
+        <v>2</v>
+      </c>
+      <c r="D19" s="14">
+        <f>4*$D$26+2</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C20" s="13">
+        <f t="shared" ref="C2:C20" si="0">2*$C$26+2</f>
+        <v>2</v>
+      </c>
+      <c r="D20" s="14">
+        <f>3*$D$26+2</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C21" s="13">
+        <f>2*$C$26+2</f>
+        <v>2</v>
+      </c>
+      <c r="D21" s="14">
+        <f>2*$D$26+2</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C22" s="13">
+        <f>$C$26+2</f>
+        <v>2</v>
+      </c>
+      <c r="D22" s="14">
+        <f>$D$26+2</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B23" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C23" s="13">
+        <f>$C$26/2+2</f>
+        <v>2</v>
+      </c>
+      <c r="D23" s="14">
+        <f>$D$26/2+2</f>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B24" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C24" s="13">
+        <f>$C$26/5+2</f>
+        <v>2</v>
+      </c>
+      <c r="D24" s="14">
+        <f>$D$26/5+2</f>
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B25" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C25" s="13">
+        <f>$C$26/10+2</f>
+        <v>2</v>
+      </c>
+      <c r="D25" s="14">
+        <f>$D$26/10+2</f>
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="9"/>
+      <c r="B26" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C26" s="16">
+        <v>0</v>
+      </c>
+      <c r="D26" s="17">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/issues+history/通过多个点绘制函数图像.xlsx
+++ b/issues+history/通过多个点绘制函数图像.xlsx
@@ -3,22 +3,26 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11012"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52C9EF88-18DE-A244-BA5A-FB6F426FE4A8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D996242-A457-6D45-8D14-E036BCE9AB74}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="20480" windowHeight="12300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="20480" windowHeight="12300" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="幂函数" sheetId="1" r:id="rId1"/>
     <sheet name="线性函数" sheetId="2" r:id="rId2"/>
     <sheet name="过一个点的线性函数" sheetId="3" r:id="rId3"/>
     <sheet name="过一个点的斜率不同的直线" sheetId="4" r:id="rId4"/>
+    <sheet name="有理函数" sheetId="5" r:id="rId5"/>
+    <sheet name="绝对值函数" sheetId="6" r:id="rId6"/>
+    <sheet name="取整函数（高斯取整）" sheetId="7" r:id="rId7"/>
+    <sheet name="分式线性函数" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="72">
   <si>
     <t>y=x^2</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -235,6 +239,74 @@
   </si>
   <si>
     <t>y=x/5+2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y=1/(1+x^2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y=1/(3x^2-1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y=x^4-2*x^3-x^2+2x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y=|x|</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y=|x|-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y=|x+1|</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y=|x-1|</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y=|x+1|+|x-1|</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y=|x^4-2*x^3-x^2+2x|</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y=1/x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y=1/[x]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y=1/(x-[x])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y=1/(x^2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y=1/(x^2-3x-2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y=1/(x^2-2x+3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y=(3x+5)/(2x+2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y=|(2x+1)/(x+1)|</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -403,7 +475,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -439,6 +511,12 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -777,16 +855,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W41"/>
+  <dimension ref="A1:W47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="P6" sqref="P6"/>
+    <sheetView topLeftCell="A35" zoomScale="160" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="2" customWidth="1"/>
-    <col min="2" max="3" width="3.1640625" customWidth="1"/>
+    <col min="2" max="2" width="3.1640625" customWidth="1"/>
+    <col min="3" max="3" width="4.33203125" customWidth="1"/>
     <col min="4" max="9" width="5.83203125" customWidth="1"/>
     <col min="10" max="10" width="6" customWidth="1"/>
     <col min="11" max="12" width="5.83203125" customWidth="1"/>
@@ -2445,6 +2524,130 @@
         <v>2</v>
       </c>
     </row>
+    <row r="43" spans="2:23">
+      <c r="B43" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23">
+      <c r="B44" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C44" s="4">
+        <f>C45^4 - 2*C45^3 - C45^2 + 2*C45</f>
+        <v>24</v>
+      </c>
+      <c r="D44" s="4">
+        <f t="shared" ref="D44" si="33">D45^4 - 2*D45^3 - D45^2 + 2*D45</f>
+        <v>6.5625</v>
+      </c>
+      <c r="E44" s="4">
+        <f t="shared" ref="E44" si="34">E45^4 - 2*E45^3 - E45^2 + 2*E45</f>
+        <v>0</v>
+      </c>
+      <c r="F44" s="4">
+        <f t="shared" ref="F44" si="35">F45^4 - 2*F45^3 - F45^2 + 2*F45</f>
+        <v>0.5625</v>
+      </c>
+      <c r="G44" s="4">
+        <f t="shared" ref="G44" si="36">G45^4 - 2*G45^3 - G45^2 + 2*G45</f>
+        <v>0</v>
+      </c>
+      <c r="H44" s="4">
+        <f t="shared" ref="H44" si="37">H45^4 - 2*H45^3 - H45^2 + 2*H45</f>
+        <v>-0.9375</v>
+      </c>
+      <c r="I44" s="4">
+        <f t="shared" ref="I44" si="38">I45^4 - 2*I45^3 - I45^2 + 2*I45</f>
+        <v>0</v>
+      </c>
+      <c r="J44" s="4">
+        <f t="shared" ref="J44" si="39">J45^4 - 2*J45^3 - J45^2 + 2*J45</f>
+        <v>0.5625</v>
+      </c>
+      <c r="K44" s="4">
+        <f t="shared" ref="K44" si="40">K45^4 - 2*K45^3 - K45^2 + 2*K45</f>
+        <v>0</v>
+      </c>
+      <c r="L44" s="4">
+        <f t="shared" ref="L44" si="41">L45^4 - 2*L45^3 - L45^2 + 2*L45</f>
+        <v>-0.9375</v>
+      </c>
+      <c r="M44" s="4">
+        <f t="shared" ref="M44" si="42">M45^4 - 2*M45^3 - M45^2 + 2*M45</f>
+        <v>0</v>
+      </c>
+      <c r="N44" s="4">
+        <f t="shared" ref="N44" si="43">N45^4 - 2*N45^3 - N45^2 + 2*N45</f>
+        <v>6.5625</v>
+      </c>
+      <c r="O44" s="4">
+        <f t="shared" ref="O44" si="44">O45^4 - 2*O45^3 - O45^2 + 2*O45</f>
+        <v>24</v>
+      </c>
+      <c r="P44" s="4">
+        <f t="shared" ref="P44" si="45">P45^4 - 2*P45^3 - P45^2 + 2*P45</f>
+        <v>59.0625</v>
+      </c>
+      <c r="Q44" s="4">
+        <f t="shared" ref="Q44" si="46">Q45^4 - 2*Q45^3 - Q45^2 + 2*Q45</f>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23">
+      <c r="B45" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C45" s="7">
+        <v>-2</v>
+      </c>
+      <c r="D45" s="7">
+        <v>-1.5</v>
+      </c>
+      <c r="E45" s="7">
+        <v>-1</v>
+      </c>
+      <c r="F45" s="7">
+        <f>0.5</f>
+        <v>0.5</v>
+      </c>
+      <c r="G45" s="7">
+        <v>0</v>
+      </c>
+      <c r="H45" s="7">
+        <v>-0.5</v>
+      </c>
+      <c r="I45" s="7">
+        <v>0</v>
+      </c>
+      <c r="J45" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="K45" s="7">
+        <v>1</v>
+      </c>
+      <c r="L45" s="7">
+        <v>1.5</v>
+      </c>
+      <c r="M45" s="7">
+        <v>2</v>
+      </c>
+      <c r="N45" s="7">
+        <v>2.5</v>
+      </c>
+      <c r="O45" s="7">
+        <v>3</v>
+      </c>
+      <c r="P45" s="7">
+        <v>3.5</v>
+      </c>
+      <c r="Q45" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23">
+      <c r="C47" s="1"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2455,7 +2658,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Y49"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" zoomScale="125" workbookViewId="0">
+    <sheetView zoomScale="125" workbookViewId="0">
       <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
@@ -4375,7 +4578,7 @@
   <dimension ref="A3:W12"/>
   <sheetViews>
     <sheetView zoomScale="133" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -5293,8 +5496,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3107E846-15C1-5647-95A4-8C0C6DE4C6EE}">
   <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="182" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView topLeftCell="A7" zoomScale="182" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
@@ -5603,7 +5806,7 @@
         <v>2</v>
       </c>
       <c r="C20" s="13">
-        <f t="shared" ref="C2:C20" si="0">2*$C$26+2</f>
+        <f t="shared" ref="C20" si="0">2*$C$26+2</f>
         <v>2</v>
       </c>
       <c r="D20" s="14">
@@ -5707,4 +5910,1172 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15187655-E553-BF4F-AE1D-EDA805A13A0E}">
+  <dimension ref="A9:M12"/>
+  <sheetViews>
+    <sheetView topLeftCell="A6" zoomScale="215" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:M12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="12.6640625" customWidth="1"/>
+    <col min="2" max="13" width="4.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="9" spans="1:13">
+      <c r="A9" s="1"/>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10">
+        <f>1/(3*C12^2-1)</f>
+        <v>1.3513513513513514E-2</v>
+      </c>
+      <c r="D10">
+        <f t="shared" ref="D10:M10" si="0">1/(3*D12^2-1)</f>
+        <v>2.1276595744680851E-2</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>3.8461538461538464E-2</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>9.0909090909090912E-2</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="0"/>
+        <v>9.0909090909090912E-2</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="0"/>
+        <v>3.8461538461538464E-2</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="0"/>
+        <v>2.1276595744680851E-2</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="0"/>
+        <v>1.3513513513513514E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="21">
+        <f t="shared" ref="C11:G11" si="1">1/(C12^2+1)</f>
+        <v>3.8461538461538464E-2</v>
+      </c>
+      <c r="D11" s="21">
+        <f t="shared" si="1"/>
+        <v>5.8823529411764705E-2</v>
+      </c>
+      <c r="E11" s="21">
+        <f t="shared" si="1"/>
+        <v>0.1</v>
+      </c>
+      <c r="F11" s="21">
+        <f t="shared" si="1"/>
+        <v>0.2</v>
+      </c>
+      <c r="G11" s="21">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="H11" s="21">
+        <f>1/(H12^2+1)</f>
+        <v>1</v>
+      </c>
+      <c r="I11" s="21">
+        <f>1/(1+I12^2)</f>
+        <v>0.5</v>
+      </c>
+      <c r="J11" s="21">
+        <f t="shared" ref="J11:M11" si="2">1/(1+J12^2)</f>
+        <v>0.2</v>
+      </c>
+      <c r="K11" s="21">
+        <f t="shared" si="2"/>
+        <v>0.1</v>
+      </c>
+      <c r="L11" s="21">
+        <f t="shared" si="2"/>
+        <v>5.8823529411764705E-2</v>
+      </c>
+      <c r="M11" s="24">
+        <f t="shared" si="2"/>
+        <v>3.8461538461538464E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="9"/>
+      <c r="B12" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="22">
+        <v>-5</v>
+      </c>
+      <c r="D12" s="22">
+        <v>-4</v>
+      </c>
+      <c r="E12" s="22">
+        <v>-3</v>
+      </c>
+      <c r="F12" s="22">
+        <v>-2</v>
+      </c>
+      <c r="G12" s="22">
+        <v>-1</v>
+      </c>
+      <c r="H12" s="16">
+        <v>0</v>
+      </c>
+      <c r="I12" s="16">
+        <v>1</v>
+      </c>
+      <c r="J12" s="16">
+        <v>2</v>
+      </c>
+      <c r="K12" s="16">
+        <v>3</v>
+      </c>
+      <c r="L12" s="16">
+        <v>4</v>
+      </c>
+      <c r="M12" s="23">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D96EC536-9201-DA46-BCA2-90840B981328}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B0D42B5-A5B7-6C42-8153-E32813A396C4}">
+  <dimension ref="A2:O8"/>
+  <sheetViews>
+    <sheetView zoomScale="150" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:O8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="20.83203125" customWidth="1"/>
+    <col min="2" max="15" width="4.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:15">
+      <c r="A2" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <f>INT(C8^4 - 2*C8^3 - C8^2 + 2*C8)</f>
+        <v>120</v>
+      </c>
+      <c r="D2">
+        <f>INT(D8^4 - 2*D8^3 - D8^2 + 2*D8)</f>
+        <v>59</v>
+      </c>
+      <c r="E2">
+        <f>INT(E8^4 - 2*E8^3 - E8^2 + 2*E8)</f>
+        <v>24</v>
+      </c>
+      <c r="F2">
+        <f>INT(F8^4 - 2*F8^3 - F8^2 + 2*F8)</f>
+        <v>6</v>
+      </c>
+      <c r="G2">
+        <f>INT(G8^4 - 2*G8^3 - G8^2 + 2*G8)</f>
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <f>INT(H8^4 - 2*H8^3 - H8^2 + 2*H8)</f>
+        <v>-1</v>
+      </c>
+      <c r="I2">
+        <f>INT(I8^4 - 2*I8^3 - I8^2 + 2*I8)</f>
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <f>INT(J8^4 - 2*J8^3 - J8^2 + 2*J8)</f>
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <f>INT(K8^4 - 2*K8^3 - K8^2 + 2*K8)</f>
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <f>INT(L8^4 - 2*L8^3 - L8^2 + 2*L8)</f>
+        <v>-1</v>
+      </c>
+      <c r="M2">
+        <f>INT(M8^4 - 2*M8^3 - M8^2 + 2*M8)</f>
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <f>INT(N8^4 - 2*N8^3 - N8^2 + 2*N8)</f>
+        <v>6</v>
+      </c>
+      <c r="O2">
+        <f>INT(O8^4 - 2*O8^3 - O8^2 + 2*O8)</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="21">
+        <f>INT(C8+1)+INT(C8-1)</f>
+        <v>-6</v>
+      </c>
+      <c r="D3" s="21">
+        <f t="shared" ref="D3:O3" si="0">INT(D8+1)+INT(D8-1)</f>
+        <v>-6</v>
+      </c>
+      <c r="E3" s="21">
+        <f t="shared" si="0"/>
+        <v>-4</v>
+      </c>
+      <c r="F3" s="21">
+        <f t="shared" si="0"/>
+        <v>-4</v>
+      </c>
+      <c r="G3" s="21">
+        <f t="shared" si="0"/>
+        <v>-2</v>
+      </c>
+      <c r="H3" s="21">
+        <f t="shared" si="0"/>
+        <v>-2</v>
+      </c>
+      <c r="I3" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J3" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K3" s="21">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="L3" s="21">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="M3" s="21">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="N3" s="21">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="O3" s="21">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="21">
+        <f>INT(C8-1)</f>
+        <v>-4</v>
+      </c>
+      <c r="D4" s="21">
+        <f t="shared" ref="D4:O4" si="1">INT(D8-1)</f>
+        <v>-4</v>
+      </c>
+      <c r="E4" s="21">
+        <f t="shared" si="1"/>
+        <v>-3</v>
+      </c>
+      <c r="F4" s="21">
+        <f t="shared" si="1"/>
+        <v>-3</v>
+      </c>
+      <c r="G4" s="21">
+        <f t="shared" si="1"/>
+        <v>-2</v>
+      </c>
+      <c r="H4" s="21">
+        <f t="shared" si="1"/>
+        <v>-2</v>
+      </c>
+      <c r="I4" s="21">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="J4" s="21">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="K4" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L4" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M4" s="21">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="N4" s="21">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="O4" s="21">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="21">
+        <f>INT(C8+1)</f>
+        <v>-2</v>
+      </c>
+      <c r="D5" s="21">
+        <f t="shared" ref="D5:O5" si="2">INT(D8+1)</f>
+        <v>-2</v>
+      </c>
+      <c r="E5" s="21">
+        <f t="shared" si="2"/>
+        <v>-1</v>
+      </c>
+      <c r="F5" s="21">
+        <f t="shared" si="2"/>
+        <v>-1</v>
+      </c>
+      <c r="G5" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H5" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I5" s="21">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="J5" s="21">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="K5" s="21">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="L5" s="21">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="M5" s="21">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="N5" s="21">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="O5" s="21">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="21">
+        <f>INT(C8)-1</f>
+        <v>-4</v>
+      </c>
+      <c r="D6" s="21">
+        <f t="shared" ref="D6:O6" si="3">INT(D8)-1</f>
+        <v>-4</v>
+      </c>
+      <c r="E6" s="21">
+        <f t="shared" si="3"/>
+        <v>-3</v>
+      </c>
+      <c r="F6" s="21">
+        <f t="shared" si="3"/>
+        <v>-3</v>
+      </c>
+      <c r="G6" s="21">
+        <f t="shared" si="3"/>
+        <v>-2</v>
+      </c>
+      <c r="H6" s="21">
+        <f t="shared" si="3"/>
+        <v>-2</v>
+      </c>
+      <c r="I6" s="21">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+      <c r="J6" s="21">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+      <c r="K6" s="21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L6" s="21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M6" s="21">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="N6" s="21">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="O6" s="21">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="21">
+        <f>INT(C8)</f>
+        <v>-3</v>
+      </c>
+      <c r="D7" s="21">
+        <f>INT(D8)</f>
+        <v>-3</v>
+      </c>
+      <c r="E7" s="21">
+        <f>INT(E8)</f>
+        <v>-2</v>
+      </c>
+      <c r="F7" s="21">
+        <f>INT(F8)</f>
+        <v>-2</v>
+      </c>
+      <c r="G7" s="21">
+        <f>INT(G8)</f>
+        <v>-1</v>
+      </c>
+      <c r="H7" s="21">
+        <f>INT(H8)</f>
+        <v>-1</v>
+      </c>
+      <c r="I7" s="21">
+        <f>INT(I8)</f>
+        <v>0</v>
+      </c>
+      <c r="J7" s="21">
+        <f>INT(J8)</f>
+        <v>0</v>
+      </c>
+      <c r="K7" s="21">
+        <f>INT(K8)</f>
+        <v>1</v>
+      </c>
+      <c r="L7" s="21">
+        <f>INT(L8)</f>
+        <v>1</v>
+      </c>
+      <c r="M7" s="21">
+        <f>INT(M8)</f>
+        <v>2</v>
+      </c>
+      <c r="N7" s="21">
+        <f>INT(N8)</f>
+        <v>2</v>
+      </c>
+      <c r="O7" s="21">
+        <f>INT(O8)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" s="9"/>
+      <c r="B8" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="22">
+        <v>-3</v>
+      </c>
+      <c r="D8" s="22">
+        <v>-2.5</v>
+      </c>
+      <c r="E8" s="22">
+        <v>-2</v>
+      </c>
+      <c r="F8" s="22">
+        <v>-1.5</v>
+      </c>
+      <c r="G8" s="22">
+        <v>-1</v>
+      </c>
+      <c r="H8" s="22">
+        <v>-0.5</v>
+      </c>
+      <c r="I8" s="22">
+        <v>0</v>
+      </c>
+      <c r="J8" s="22">
+        <v>0.5</v>
+      </c>
+      <c r="K8" s="22">
+        <v>1</v>
+      </c>
+      <c r="L8" s="22">
+        <v>1.5</v>
+      </c>
+      <c r="M8" s="22">
+        <v>2</v>
+      </c>
+      <c r="N8" s="22">
+        <v>2.5</v>
+      </c>
+      <c r="O8" s="22">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="C6:O6" formula="1"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D923309-C7BC-3F43-959F-6935678EA5DF}">
+  <dimension ref="A2:O10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="131" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="15" customWidth="1"/>
+    <col min="2" max="2" width="2.83203125" customWidth="1"/>
+    <col min="3" max="3" width="9.33203125" customWidth="1"/>
+    <col min="4" max="4" width="4.83203125" customWidth="1"/>
+    <col min="5" max="5" width="8.5" customWidth="1"/>
+    <col min="6" max="6" width="4.83203125" customWidth="1"/>
+    <col min="7" max="7" width="8.83203125" customWidth="1"/>
+    <col min="8" max="8" width="4.83203125" customWidth="1"/>
+    <col min="9" max="9" width="9.6640625" customWidth="1"/>
+    <col min="10" max="10" width="8.83203125" customWidth="1"/>
+    <col min="11" max="11" width="8" customWidth="1"/>
+    <col min="12" max="12" width="7" customWidth="1"/>
+    <col min="13" max="13" width="9" customWidth="1"/>
+    <col min="14" max="14" width="5.33203125" customWidth="1"/>
+    <col min="15" max="15" width="9.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:15">
+      <c r="A2" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="21">
+        <f>INT((2*(C10)+1)/(C10+1))</f>
+        <v>2</v>
+      </c>
+      <c r="D2" s="21">
+        <f t="shared" ref="D2:O2" si="0">INT((2*(D10)+1)/(D10+1))</f>
+        <v>2</v>
+      </c>
+      <c r="E2" s="21">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F2" s="21">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="G2" s="21" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H2" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I2" s="21">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J2" s="21">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K2" s="21">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L2" s="21">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M2" s="21">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N2" s="21">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O2" s="21">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="21">
+        <f>(3*C10+5)/(2*C10+2)</f>
+        <v>1</v>
+      </c>
+      <c r="D3" s="21">
+        <f t="shared" ref="D3:O3" si="1">(3*D10+5)/(2*D10+2)</f>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="E3" s="21">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="F3" s="21">
+        <f t="shared" si="1"/>
+        <v>-0.5</v>
+      </c>
+      <c r="G3" s="21" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H3" s="21">
+        <f t="shared" si="1"/>
+        <v>3.5</v>
+      </c>
+      <c r="I3" s="21">
+        <f t="shared" si="1"/>
+        <v>2.5</v>
+      </c>
+      <c r="J3" s="21">
+        <f t="shared" si="1"/>
+        <v>2.1666666666666665</v>
+      </c>
+      <c r="K3" s="21">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="L3" s="21">
+        <f t="shared" si="1"/>
+        <v>1.9</v>
+      </c>
+      <c r="M3" s="21">
+        <f t="shared" si="1"/>
+        <v>1.8333333333333333</v>
+      </c>
+      <c r="N3" s="21">
+        <f t="shared" si="1"/>
+        <v>1.7857142857142858</v>
+      </c>
+      <c r="O3" s="21">
+        <f t="shared" si="1"/>
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="21">
+        <f>1/((C10)^2-2*C10+3)</f>
+        <v>5.5555555555555552E-2</v>
+      </c>
+      <c r="D4" s="21">
+        <f t="shared" ref="D2:O4" si="2">1/((D10)^2-2*D10+3)</f>
+        <v>7.0175438596491224E-2</v>
+      </c>
+      <c r="E4" s="21">
+        <f t="shared" si="2"/>
+        <v>9.0909090909090912E-2</v>
+      </c>
+      <c r="F4" s="21">
+        <f t="shared" si="2"/>
+        <v>0.12121212121212122</v>
+      </c>
+      <c r="G4" s="21">
+        <f t="shared" si="2"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="H4" s="21">
+        <f t="shared" si="2"/>
+        <v>0.23529411764705882</v>
+      </c>
+      <c r="I4" s="21">
+        <f t="shared" si="2"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="J4" s="21">
+        <f t="shared" si="2"/>
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="K4" s="21">
+        <f t="shared" si="2"/>
+        <v>0.5</v>
+      </c>
+      <c r="L4" s="21">
+        <f t="shared" si="2"/>
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="M4" s="21">
+        <f t="shared" si="2"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="N4" s="21">
+        <f t="shared" si="2"/>
+        <v>0.23529411764705882</v>
+      </c>
+      <c r="O4" s="21">
+        <f t="shared" si="2"/>
+        <v>0.16666666666666666</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="21">
+        <f>1/((C10)^2-3*C10-2)</f>
+        <v>6.25E-2</v>
+      </c>
+      <c r="D5" s="21">
+        <f t="shared" ref="D5:O5" si="3">1/((D10)^2-3*D10-2)</f>
+        <v>8.5106382978723402E-2</v>
+      </c>
+      <c r="E5" s="21">
+        <f t="shared" si="3"/>
+        <v>0.125</v>
+      </c>
+      <c r="F5" s="21">
+        <f t="shared" si="3"/>
+        <v>0.21052631578947367</v>
+      </c>
+      <c r="G5" s="21">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+      <c r="H5" s="21">
+        <f t="shared" si="3"/>
+        <v>-4</v>
+      </c>
+      <c r="I5" s="21">
+        <f t="shared" si="3"/>
+        <v>-0.5</v>
+      </c>
+      <c r="J5" s="21">
+        <f t="shared" si="3"/>
+        <v>-0.30769230769230771</v>
+      </c>
+      <c r="K5" s="21">
+        <f t="shared" si="3"/>
+        <v>-0.25</v>
+      </c>
+      <c r="L5" s="21">
+        <f t="shared" si="3"/>
+        <v>-0.23529411764705882</v>
+      </c>
+      <c r="M5" s="21">
+        <f t="shared" si="3"/>
+        <v>-0.25</v>
+      </c>
+      <c r="N5" s="21">
+        <f t="shared" si="3"/>
+        <v>-0.30769230769230771</v>
+      </c>
+      <c r="O5" s="21">
+        <f t="shared" si="3"/>
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="21">
+        <f>1/((C10)^2)</f>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="D6" s="21">
+        <f t="shared" ref="D6:O6" si="4">1/((D10)^2)</f>
+        <v>0.16</v>
+      </c>
+      <c r="E6" s="21">
+        <f t="shared" si="4"/>
+        <v>0.25</v>
+      </c>
+      <c r="F6" s="21">
+        <f t="shared" si="4"/>
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="G6" s="21">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="H6" s="21">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="I6" s="21" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J6" s="21">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="K6" s="21">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="L6" s="21">
+        <f t="shared" si="4"/>
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="M6" s="21">
+        <f t="shared" si="4"/>
+        <v>0.25</v>
+      </c>
+      <c r="N6" s="21">
+        <f>1/((N10)^2)</f>
+        <v>0.16</v>
+      </c>
+      <c r="O6" s="21">
+        <f t="shared" si="4"/>
+        <v>0.1111111111111111</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="21" t="e">
+        <f>1/(C10-INT(C10))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D7" s="21">
+        <f t="shared" ref="D7:O7" si="5">1/(D10-INT(D10))</f>
+        <v>2</v>
+      </c>
+      <c r="E7" s="21" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F7" s="21">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="G7" s="21" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H7" s="21">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="I7" s="21" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J7" s="21">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="K7" s="21" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L7" s="21">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="M7" s="21" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N7" s="21">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="O7" s="21" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="21">
+        <f>1/INT(C10)</f>
+        <v>-0.33333333333333331</v>
+      </c>
+      <c r="D8" s="21">
+        <f t="shared" ref="D8:O8" si="6">1/INT(D10)</f>
+        <v>-0.33333333333333331</v>
+      </c>
+      <c r="E8" s="21">
+        <f t="shared" si="6"/>
+        <v>-0.5</v>
+      </c>
+      <c r="F8" s="21">
+        <f t="shared" si="6"/>
+        <v>-0.5</v>
+      </c>
+      <c r="G8" s="21">
+        <f t="shared" si="6"/>
+        <v>-1</v>
+      </c>
+      <c r="H8" s="21">
+        <f t="shared" si="6"/>
+        <v>-1</v>
+      </c>
+      <c r="I8" s="21" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J8" s="21" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K8" s="21">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="L8" s="21">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="M8" s="21">
+        <f t="shared" si="6"/>
+        <v>0.5</v>
+      </c>
+      <c r="N8" s="21">
+        <f t="shared" si="6"/>
+        <v>0.5</v>
+      </c>
+      <c r="O8" s="21">
+        <f t="shared" si="6"/>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="21">
+        <f>1/C10</f>
+        <v>-0.33333333333333331</v>
+      </c>
+      <c r="D9" s="21">
+        <f t="shared" ref="D9:O9" si="7">1/D10</f>
+        <v>-0.4</v>
+      </c>
+      <c r="E9" s="21">
+        <f t="shared" si="7"/>
+        <v>-0.5</v>
+      </c>
+      <c r="F9" s="21">
+        <f t="shared" si="7"/>
+        <v>-0.66666666666666663</v>
+      </c>
+      <c r="G9" s="21">
+        <f t="shared" si="7"/>
+        <v>-1</v>
+      </c>
+      <c r="H9" s="21">
+        <f t="shared" si="7"/>
+        <v>-2</v>
+      </c>
+      <c r="I9" s="21" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J9" s="21">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="K9" s="21">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="L9" s="21">
+        <f t="shared" si="7"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="M9" s="21">
+        <f t="shared" si="7"/>
+        <v>0.5</v>
+      </c>
+      <c r="N9" s="21">
+        <f t="shared" si="7"/>
+        <v>0.4</v>
+      </c>
+      <c r="O9" s="21">
+        <f t="shared" si="7"/>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10" s="9"/>
+      <c r="B10" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="22">
+        <v>-3</v>
+      </c>
+      <c r="D10" s="22">
+        <v>-2.5</v>
+      </c>
+      <c r="E10" s="22">
+        <v>-2</v>
+      </c>
+      <c r="F10" s="22">
+        <v>-1.5</v>
+      </c>
+      <c r="G10" s="22">
+        <v>-1</v>
+      </c>
+      <c r="H10" s="22">
+        <v>-0.5</v>
+      </c>
+      <c r="I10" s="22">
+        <v>0</v>
+      </c>
+      <c r="J10" s="22">
+        <v>0.5</v>
+      </c>
+      <c r="K10" s="22">
+        <v>1</v>
+      </c>
+      <c r="L10" s="22">
+        <v>1.5</v>
+      </c>
+      <c r="M10" s="22">
+        <v>2</v>
+      </c>
+      <c r="N10" s="22">
+        <v>2.5</v>
+      </c>
+      <c r="O10" s="22">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="C3" formula="1"/>
+  </ignoredErrors>
+</worksheet>
 </file>
--- a/issues+history/通过多个点绘制函数图像.xlsx
+++ b/issues+history/通过多个点绘制函数图像.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11012"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D996242-A457-6D45-8D14-E036BCE9AB74}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC920A1B-9914-6F4E-A688-51E6787442AF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="20480" windowHeight="12300" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="82">
   <si>
     <t>y=x^2</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -242,14 +242,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>y=1/(1+x^2)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>y=1/(3x^2-1)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>y=x^4-2*x^3-x^2+2x</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -258,10 +250,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>y=|x|-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>y=|x+1|</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -274,10 +262,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>y=|x^4-2*x^3-x^2+2x|</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>y=1/x</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -290,23 +274,102 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>y=1/(x^2)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>y=1/(x^2-3x-2)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>y=1/(x^2-2x+3)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>y=(3x+5)/(2x+2)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>y=|(2x+1)/(x+1)|</t>
+    <t>y=[x]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y=[x]-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y=[x+1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y=[x-1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y=[x+1]+[x-1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y=[(2x+1)/(x+1)]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y=|x|+1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y=1/(x+1)+1/(x-1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y=(x²+1)/x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y=x/(x²+1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y=（x-1）/(x²+2x+1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y=1/(3x²-1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y=1/(1+x²)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y=1/(x²-2|x|+2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y=1/(x²-2x+3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y=1/(x²-3x-2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y=1/(x²)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>y=[x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>⁴</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>-2x³-x²+2x]</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -314,7 +377,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
+  </numFmts>
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -354,6 +420,21 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="SimSun"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="SimSun"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -475,7 +556,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -517,6 +598,11 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2526,7 +2612,7 @@
     </row>
     <row r="43" spans="2:23">
       <c r="B43" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="44" spans="2:23">
@@ -2658,7 +2744,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Y49"/>
   <sheetViews>
-    <sheetView zoomScale="125" workbookViewId="0">
+    <sheetView topLeftCell="A21" zoomScale="125" workbookViewId="0">
       <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
@@ -5496,7 +5582,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3107E846-15C1-5647-95A4-8C0C6DE4C6EE}">
   <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="182" workbookViewId="0">
+    <sheetView zoomScale="182" workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
@@ -5914,24 +6000,233 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15187655-E553-BF4F-AE1D-EDA805A13A0E}">
-  <dimension ref="A9:M12"/>
+  <dimension ref="A6:M12"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="215" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:M12"/>
+    <sheetView zoomScale="171" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" customWidth="1"/>
-    <col min="2" max="13" width="4.83203125" customWidth="1"/>
+    <col min="1" max="1" width="18.83203125" customWidth="1"/>
+    <col min="2" max="6" width="4.83203125" customWidth="1"/>
+    <col min="7" max="7" width="7.6640625" customWidth="1"/>
+    <col min="8" max="8" width="7.83203125" customWidth="1"/>
+    <col min="9" max="9" width="8.1640625" customWidth="1"/>
+    <col min="10" max="13" width="4.83203125" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="6" spans="1:13">
+      <c r="A6" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <f>1/(C12+1)+1/(C12-1)</f>
+        <v>-0.41666666666666663</v>
+      </c>
+      <c r="D6">
+        <f t="shared" ref="D6:M6" si="0">1/(D12+1)+1/(D12-1)</f>
+        <v>-0.53333333333333333</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>-0.75</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>-1.3333333333333333</v>
+      </c>
+      <c r="G6" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I6" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="0"/>
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="0"/>
+        <v>0.75</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="0"/>
+        <v>0.53333333333333333</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="0"/>
+        <v>0.41666666666666663</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <f>(C12^2+1)/C12</f>
+        <v>-5.2</v>
+      </c>
+      <c r="D7">
+        <f t="shared" ref="D7:M7" si="1">(D12^2+1)/D12</f>
+        <v>-4.25</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="1"/>
+        <v>-3.3333333333333335</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="1"/>
+        <v>-2.5</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="1"/>
+        <v>-2</v>
+      </c>
+      <c r="H7" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="1"/>
+        <v>2.5</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="1"/>
+        <v>3.3333333333333335</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="1"/>
+        <v>4.25</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="1"/>
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8">
+        <f>C12/(C12^2+1)</f>
+        <v>-0.19230769230769232</v>
+      </c>
+      <c r="D8">
+        <f t="shared" ref="D8:M8" si="2">D12/(D12^2+1)</f>
+        <v>-0.23529411764705882</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="2"/>
+        <v>-0.3</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="2"/>
+        <v>-0.4</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="2"/>
+        <v>-0.5</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="2"/>
+        <v>0.5</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="2"/>
+        <v>0.4</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="2"/>
+        <v>0.3</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="2"/>
+        <v>0.23529411764705882</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="2"/>
+        <v>0.19230769230769232</v>
+      </c>
+    </row>
     <row r="9" spans="1:13">
-      <c r="A9" s="1"/>
+      <c r="A9" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9">
+        <f>(C12-1)/(C12^2+2*C12+1)</f>
+        <v>-0.375</v>
+      </c>
+      <c r="D9">
+        <f t="shared" ref="D9:M9" si="3">(D12-1)/(D12^2+2*D12+1)</f>
+        <v>-0.55555555555555558</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="3"/>
+        <v>-3</v>
+      </c>
+      <c r="G9" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="3"/>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="3"/>
+        <v>0.125</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="3"/>
+        <v>0.12</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="3"/>
+        <v>0.1111111111111111</v>
+      </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="1" t="s">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="B10" s="19" t="s">
         <v>2</v>
@@ -5941,71 +6236,71 @@
         <v>1.3513513513513514E-2</v>
       </c>
       <c r="D10">
-        <f t="shared" ref="D10:M10" si="0">1/(3*D12^2-1)</f>
+        <f>1/(3*D12^2-1)</f>
         <v>2.1276595744680851E-2</v>
       </c>
       <c r="E10">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="E10:M10" si="4">1/(3*E12^2-1)</f>
         <v>3.8461538461538464E-2</v>
       </c>
       <c r="F10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>9.0909090909090912E-2</v>
       </c>
       <c r="G10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.5</v>
       </c>
       <c r="H10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>-1</v>
       </c>
       <c r="I10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.5</v>
       </c>
       <c r="J10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>9.0909090909090912E-2</v>
       </c>
       <c r="K10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>3.8461538461538464E-2</v>
       </c>
       <c r="L10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>2.1276595744680851E-2</v>
       </c>
       <c r="M10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1.3513513513513514E-2</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="1" t="s">
-        <v>55</v>
+        <v>76</v>
       </c>
       <c r="B11" s="19" t="s">
         <v>2</v>
       </c>
       <c r="C11" s="21">
-        <f t="shared" ref="C11:G11" si="1">1/(C12^2+1)</f>
+        <f t="shared" ref="C11:G11" si="5">1/(C12^2+1)</f>
         <v>3.8461538461538464E-2</v>
       </c>
       <c r="D11" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>5.8823529411764705E-2</v>
       </c>
       <c r="E11" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0.1</v>
       </c>
       <c r="F11" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0.2</v>
       </c>
       <c r="G11" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0.5</v>
       </c>
       <c r="H11" s="21">
@@ -6017,19 +6312,19 @@
         <v>0.5</v>
       </c>
       <c r="J11" s="21">
-        <f t="shared" ref="J11:M11" si="2">1/(1+J12^2)</f>
+        <f t="shared" ref="J11:M11" si="6">1/(1+J12^2)</f>
         <v>0.2</v>
       </c>
       <c r="K11" s="21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.1</v>
       </c>
       <c r="L11" s="21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>5.8823529411764705E-2</v>
       </c>
       <c r="M11" s="24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>3.8461538461538464E-2</v>
       </c>
     </row>
@@ -6075,28 +6370,18 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="C9" formula="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D96EC536-9201-DA46-BCA2-90840B981328}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B0D42B5-A5B7-6C42-8153-E32813A396C4}">
   <dimension ref="A2:O8"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:O8"/>
+    <sheetView zoomScale="180" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
@@ -6107,67 +6392,492 @@
   <sheetData>
     <row r="2" spans="1:15">
       <c r="A2" s="1" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="B2" s="19" t="s">
         <v>2</v>
       </c>
       <c r="C2">
-        <f>INT(C8^4 - 2*C8^3 - C8^2 + 2*C8)</f>
-        <v>120</v>
+        <f>1/(C8^2 - 2*ABS(C8) + 2)</f>
+        <v>0.2</v>
       </c>
       <c r="D2">
-        <f>INT(D8^4 - 2*D8^3 - D8^2 + 2*D8)</f>
-        <v>59</v>
+        <f t="shared" ref="D2:O2" si="0">1/(D8^2 - 2*ABS(D8) + 2)</f>
+        <v>0.30769230769230771</v>
       </c>
       <c r="E2">
-        <f>INT(E8^4 - 2*E8^3 - E8^2 + 2*E8)</f>
-        <v>24</v>
+        <f t="shared" si="0"/>
+        <v>0.5</v>
       </c>
       <c r="F2">
-        <f>INT(F8^4 - 2*F8^3 - F8^2 + 2*F8)</f>
-        <v>6</v>
+        <f t="shared" si="0"/>
+        <v>0.8</v>
       </c>
       <c r="G2">
-        <f>INT(G8^4 - 2*G8^3 - G8^2 + 2*G8)</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="H2">
-        <f>INT(H8^4 - 2*H8^3 - H8^2 + 2*H8)</f>
-        <v>-1</v>
+        <f t="shared" si="0"/>
+        <v>0.8</v>
       </c>
       <c r="I2">
-        <f>INT(I8^4 - 2*I8^3 - I8^2 + 2*I8)</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.5</v>
       </c>
       <c r="J2">
-        <f>INT(J8^4 - 2*J8^3 - J8^2 + 2*J8)</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.8</v>
       </c>
       <c r="K2">
-        <f>INT(K8^4 - 2*K8^3 - K8^2 + 2*K8)</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="L2">
-        <f>INT(L8^4 - 2*L8^3 - L8^2 + 2*L8)</f>
-        <v>-1</v>
+        <f t="shared" si="0"/>
+        <v>0.8</v>
       </c>
       <c r="M2">
-        <f>INT(M8^4 - 2*M8^3 - M8^2 + 2*M8)</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.5</v>
       </c>
       <c r="N2">
-        <f>INT(N8^4 - 2*N8^3 - N8^2 + 2*N8)</f>
-        <v>6</v>
+        <f t="shared" si="0"/>
+        <v>0.30769230769230771</v>
       </c>
       <c r="O2">
-        <f>INT(O8^4 - 2*O8^3 - O8^2 + 2*O8)</f>
-        <v>24</v>
+        <f t="shared" si="0"/>
+        <v>0.2</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="21">
+        <f>ABS(C8+1)+ABS(C8-1)</f>
+        <v>6</v>
+      </c>
+      <c r="D3" s="21">
+        <f t="shared" ref="D3:O3" si="1">ABS(D8+1)+ABS(D8-1)</f>
+        <v>5</v>
+      </c>
+      <c r="E3" s="21">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="F3" s="21">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="G3" s="21">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="H3" s="21">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="I3" s="21">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="J3" s="21">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="K3" s="21">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="L3" s="21">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="M3" s="21">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="N3" s="21">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="O3" s="21">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="21">
+        <f>ABS(C8-1)</f>
+        <v>4</v>
+      </c>
+      <c r="D4" s="21">
+        <f t="shared" ref="D4:O4" si="2">ABS(D8-1)</f>
+        <v>3.5</v>
+      </c>
+      <c r="E4" s="21">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="F4" s="21">
+        <f t="shared" si="2"/>
+        <v>2.5</v>
+      </c>
+      <c r="G4" s="21">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="H4" s="21">
+        <f t="shared" si="2"/>
+        <v>1.5</v>
+      </c>
+      <c r="I4" s="21">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="J4" s="21">
+        <f t="shared" si="2"/>
+        <v>0.5</v>
+      </c>
+      <c r="K4" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L4" s="21">
+        <f t="shared" si="2"/>
+        <v>0.5</v>
+      </c>
+      <c r="M4" s="21">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="N4" s="21">
+        <f t="shared" si="2"/>
+        <v>1.5</v>
+      </c>
+      <c r="O4" s="21">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="21">
+        <f>ABS(C8+1)</f>
+        <v>2</v>
+      </c>
+      <c r="D5" s="21">
+        <f t="shared" ref="D5:O5" si="3">ABS(D8+1)</f>
+        <v>1.5</v>
+      </c>
+      <c r="E5" s="21">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="F5" s="21">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+      <c r="G5" s="21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H5" s="21">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+      <c r="I5" s="21">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="J5" s="21">
+        <f t="shared" si="3"/>
+        <v>1.5</v>
+      </c>
+      <c r="K5" s="21">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="L5" s="21">
+        <f t="shared" si="3"/>
+        <v>2.5</v>
+      </c>
+      <c r="M5" s="21">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="N5" s="21">
+        <f t="shared" si="3"/>
+        <v>3.5</v>
+      </c>
+      <c r="O5" s="21">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="21">
+        <f>ABS(C8)+1</f>
+        <v>4</v>
+      </c>
+      <c r="D6" s="21">
+        <f t="shared" ref="D6:O6" si="4">ABS(D8)+1</f>
+        <v>3.5</v>
+      </c>
+      <c r="E6" s="21">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="F6" s="21">
+        <f t="shared" si="4"/>
+        <v>2.5</v>
+      </c>
+      <c r="G6" s="21">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="H6" s="21">
+        <f t="shared" si="4"/>
+        <v>1.5</v>
+      </c>
+      <c r="I6" s="21">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="J6" s="21">
+        <f t="shared" si="4"/>
+        <v>1.5</v>
+      </c>
+      <c r="K6" s="21">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="L6" s="21">
+        <f t="shared" si="4"/>
+        <v>2.5</v>
+      </c>
+      <c r="M6" s="21">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="N6" s="21">
+        <f t="shared" si="4"/>
+        <v>3.5</v>
+      </c>
+      <c r="O6" s="21">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="21">
+        <f>ABS(C8)</f>
+        <v>3</v>
+      </c>
+      <c r="D7" s="21">
+        <f t="shared" ref="D7:O7" si="5">ABS(D8)</f>
+        <v>2.5</v>
+      </c>
+      <c r="E7" s="21">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="F7" s="21">
+        <f t="shared" si="5"/>
+        <v>1.5</v>
+      </c>
+      <c r="G7" s="21">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="H7" s="21">
+        <f t="shared" si="5"/>
+        <v>0.5</v>
+      </c>
+      <c r="I7" s="21">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J7" s="21">
+        <f t="shared" si="5"/>
+        <v>0.5</v>
+      </c>
+      <c r="K7" s="21">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="L7" s="21">
+        <f t="shared" si="5"/>
+        <v>1.5</v>
+      </c>
+      <c r="M7" s="21">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="N7" s="21">
+        <f t="shared" si="5"/>
+        <v>2.5</v>
+      </c>
+      <c r="O7" s="21">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" s="9"/>
+      <c r="B8" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="22">
+        <v>-3</v>
+      </c>
+      <c r="D8" s="22">
+        <v>-2.5</v>
+      </c>
+      <c r="E8" s="22">
+        <v>-2</v>
+      </c>
+      <c r="F8" s="22">
+        <v>-1.5</v>
+      </c>
+      <c r="G8" s="22">
+        <v>-1</v>
+      </c>
+      <c r="H8" s="22">
+        <v>-0.5</v>
+      </c>
+      <c r="I8" s="22">
+        <v>0</v>
+      </c>
+      <c r="J8" s="22">
+        <v>0.5</v>
+      </c>
+      <c r="K8" s="22">
+        <v>1</v>
+      </c>
+      <c r="L8" s="22">
+        <v>1.5</v>
+      </c>
+      <c r="M8" s="22">
+        <v>2</v>
+      </c>
+      <c r="N8" s="22">
+        <v>2.5</v>
+      </c>
+      <c r="O8" s="22">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B0D42B5-A5B7-6C42-8153-E32813A396C4}">
+  <dimension ref="A2:O8"/>
+  <sheetViews>
+    <sheetView zoomScale="175" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="15.83203125" customWidth="1"/>
+    <col min="2" max="15" width="4.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:15">
+      <c r="A2" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <f t="shared" ref="C2:O2" si="0">INT(C8^4 - 2*C8^3 - C8^2 + 2*C8)</f>
+        <v>120</v>
+      </c>
+      <c r="D2">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
+      <c r="E2">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="F2">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="G2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="I2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="M2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="O2">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="B3" s="19" t="s">
         <v>2</v>
@@ -6177,57 +6887,57 @@
         <v>-6</v>
       </c>
       <c r="D3" s="21">
-        <f t="shared" ref="D3:O3" si="0">INT(D8+1)+INT(D8-1)</f>
+        <f t="shared" ref="D3:O3" si="1">INT(D8+1)+INT(D8-1)</f>
         <v>-6</v>
       </c>
       <c r="E3" s="21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-4</v>
       </c>
       <c r="F3" s="21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-4</v>
       </c>
       <c r="G3" s="21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-2</v>
       </c>
       <c r="H3" s="21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-2</v>
       </c>
       <c r="I3" s="21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J3" s="21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K3" s="21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="L3" s="21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="M3" s="21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="N3" s="21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="O3" s="21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="1" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="B4" s="19" t="s">
         <v>2</v>
@@ -6237,57 +6947,57 @@
         <v>-4</v>
       </c>
       <c r="D4" s="21">
-        <f t="shared" ref="D4:O4" si="1">INT(D8-1)</f>
+        <f t="shared" ref="D4:O4" si="2">INT(D8-1)</f>
         <v>-4</v>
       </c>
       <c r="E4" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-3</v>
       </c>
       <c r="F4" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-3</v>
       </c>
       <c r="G4" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-2</v>
       </c>
       <c r="H4" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-2</v>
       </c>
       <c r="I4" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-1</v>
       </c>
       <c r="J4" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-1</v>
       </c>
       <c r="K4" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L4" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M4" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="N4" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="O4" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="1" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B5" s="19" t="s">
         <v>2</v>
@@ -6297,57 +7007,57 @@
         <v>-2</v>
       </c>
       <c r="D5" s="21">
-        <f t="shared" ref="D5:O5" si="2">INT(D8+1)</f>
+        <f t="shared" ref="D5:O5" si="3">INT(D8+1)</f>
         <v>-2</v>
       </c>
       <c r="E5" s="21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-1</v>
       </c>
       <c r="F5" s="21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-1</v>
       </c>
       <c r="G5" s="21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H5" s="21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I5" s="21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J5" s="21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="K5" s="21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="L5" s="21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="M5" s="21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="N5" s="21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="O5" s="21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="1" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="B6" s="19" t="s">
         <v>2</v>
@@ -6357,111 +7067,111 @@
         <v>-4</v>
       </c>
       <c r="D6" s="21">
-        <f t="shared" ref="D6:O6" si="3">INT(D8)-1</f>
+        <f t="shared" ref="D6:O6" si="4">INT(D8)-1</f>
         <v>-4</v>
       </c>
       <c r="E6" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-3</v>
       </c>
       <c r="F6" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-3</v>
       </c>
       <c r="G6" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-2</v>
       </c>
       <c r="H6" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-2</v>
       </c>
       <c r="I6" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-1</v>
       </c>
       <c r="J6" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-1</v>
       </c>
       <c r="K6" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="L6" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M6" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="N6" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="O6" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="1" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="B7" s="19" t="s">
         <v>2</v>
       </c>
       <c r="C7" s="21">
-        <f>INT(C8)</f>
+        <f t="shared" ref="C7:O7" si="5">INT(C8)</f>
         <v>-3</v>
       </c>
       <c r="D7" s="21">
-        <f>INT(D8)</f>
+        <f t="shared" si="5"/>
         <v>-3</v>
       </c>
       <c r="E7" s="21">
-        <f>INT(E8)</f>
+        <f t="shared" si="5"/>
         <v>-2</v>
       </c>
       <c r="F7" s="21">
-        <f>INT(F8)</f>
+        <f t="shared" si="5"/>
         <v>-2</v>
       </c>
       <c r="G7" s="21">
-        <f>INT(G8)</f>
+        <f t="shared" si="5"/>
         <v>-1</v>
       </c>
       <c r="H7" s="21">
-        <f>INT(H8)</f>
+        <f t="shared" si="5"/>
         <v>-1</v>
       </c>
       <c r="I7" s="21">
-        <f>INT(I8)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J7" s="21">
-        <f>INT(J8)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K7" s="21">
-        <f>INT(K8)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="L7" s="21">
-        <f>INT(L8)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="M7" s="21">
-        <f>INT(M8)</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="N7" s="21">
-        <f>INT(N8)</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="O7" s="21">
-        <f>INT(O8)</f>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
     </row>
@@ -6523,505 +7233,504 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D923309-C7BC-3F43-959F-6935678EA5DF}">
   <dimension ref="A2:O10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="131" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" zoomScale="134" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
     <col min="2" max="2" width="2.83203125" customWidth="1"/>
-    <col min="3" max="3" width="9.33203125" customWidth="1"/>
-    <col min="4" max="4" width="4.83203125" customWidth="1"/>
-    <col min="5" max="5" width="8.5" customWidth="1"/>
-    <col min="6" max="6" width="4.83203125" customWidth="1"/>
-    <col min="7" max="7" width="8.83203125" customWidth="1"/>
-    <col min="8" max="8" width="4.83203125" customWidth="1"/>
-    <col min="9" max="9" width="9.6640625" customWidth="1"/>
-    <col min="10" max="10" width="8.83203125" customWidth="1"/>
-    <col min="11" max="11" width="8" customWidth="1"/>
-    <col min="12" max="12" width="7" customWidth="1"/>
-    <col min="13" max="13" width="9" customWidth="1"/>
-    <col min="14" max="14" width="5.33203125" customWidth="1"/>
-    <col min="15" max="15" width="9.83203125" customWidth="1"/>
+    <col min="3" max="3" width="7.6640625" style="27" customWidth="1"/>
+    <col min="4" max="4" width="6.6640625" style="27" customWidth="1"/>
+    <col min="5" max="5" width="8.1640625" style="27" customWidth="1"/>
+    <col min="6" max="6" width="6.83203125" style="27" customWidth="1"/>
+    <col min="7" max="7" width="8.33203125" style="27" customWidth="1"/>
+    <col min="8" max="8" width="6.6640625" style="27" customWidth="1"/>
+    <col min="9" max="9" width="8" style="27" customWidth="1"/>
+    <col min="10" max="11" width="7.83203125" style="27" customWidth="1"/>
+    <col min="12" max="12" width="6.83203125" style="27" customWidth="1"/>
+    <col min="13" max="13" width="8" style="27" customWidth="1"/>
+    <col min="14" max="14" width="7" style="27" customWidth="1"/>
+    <col min="15" max="15" width="7.83203125" style="27" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:15">
       <c r="A2" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B2" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="21">
+      <c r="C2" s="25">
         <f>INT((2*(C10)+1)/(C10+1))</f>
         <v>2</v>
       </c>
-      <c r="D2" s="21">
+      <c r="D2" s="25">
         <f t="shared" ref="D2:O2" si="0">INT((2*(D10)+1)/(D10+1))</f>
         <v>2</v>
       </c>
-      <c r="E2" s="21">
+      <c r="E2" s="25">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="F2" s="21">
+      <c r="F2" s="25">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="G2" s="21" t="e">
+      <c r="G2" s="25" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H2" s="21">
+      <c r="H2" s="25">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I2" s="21">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="J2" s="21">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="K2" s="21">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="L2" s="21">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="M2" s="21">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="N2" s="21">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="O2" s="21">
+      <c r="I2" s="25">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J2" s="25">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K2" s="25">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L2" s="25">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M2" s="25">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N2" s="25">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O2" s="25">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="1" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="B3" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="21">
+      <c r="C3" s="25">
         <f>(3*C10+5)/(2*C10+2)</f>
         <v>1</v>
       </c>
-      <c r="D3" s="21">
+      <c r="D3" s="25">
         <f t="shared" ref="D3:O3" si="1">(3*D10+5)/(2*D10+2)</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="E3" s="21">
+      <c r="E3" s="25">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
-      <c r="F3" s="21">
+      <c r="F3" s="25">
         <f t="shared" si="1"/>
         <v>-0.5</v>
       </c>
-      <c r="G3" s="21" t="e">
+      <c r="G3" s="25" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H3" s="21">
+      <c r="H3" s="25">
         <f t="shared" si="1"/>
         <v>3.5</v>
       </c>
-      <c r="I3" s="21">
+      <c r="I3" s="25">
         <f t="shared" si="1"/>
         <v>2.5</v>
       </c>
-      <c r="J3" s="21">
+      <c r="J3" s="25">
         <f t="shared" si="1"/>
         <v>2.1666666666666665</v>
       </c>
-      <c r="K3" s="21">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="L3" s="21">
+      <c r="K3" s="25">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="L3" s="25">
         <f t="shared" si="1"/>
         <v>1.9</v>
       </c>
-      <c r="M3" s="21">
+      <c r="M3" s="25">
         <f t="shared" si="1"/>
         <v>1.8333333333333333</v>
       </c>
-      <c r="N3" s="21">
+      <c r="N3" s="25">
         <f t="shared" si="1"/>
         <v>1.7857142857142858</v>
       </c>
-      <c r="O3" s="21">
+      <c r="O3" s="25">
         <f t="shared" si="1"/>
         <v>1.75</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="1" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="B4" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="21">
+      <c r="C4" s="25">
         <f>1/((C10)^2-2*C10+3)</f>
         <v>5.5555555555555552E-2</v>
       </c>
-      <c r="D4" s="21">
-        <f t="shared" ref="D2:O4" si="2">1/((D10)^2-2*D10+3)</f>
+      <c r="D4" s="25">
+        <f t="shared" ref="D4:O4" si="2">1/((D10)^2-2*D10+3)</f>
         <v>7.0175438596491224E-2</v>
       </c>
-      <c r="E4" s="21">
+      <c r="E4" s="25">
         <f t="shared" si="2"/>
         <v>9.0909090909090912E-2</v>
       </c>
-      <c r="F4" s="21">
+      <c r="F4" s="25">
         <f t="shared" si="2"/>
         <v>0.12121212121212122</v>
       </c>
-      <c r="G4" s="21">
+      <c r="G4" s="25">
         <f t="shared" si="2"/>
         <v>0.16666666666666666</v>
       </c>
-      <c r="H4" s="21">
+      <c r="H4" s="25">
         <f t="shared" si="2"/>
         <v>0.23529411764705882</v>
       </c>
-      <c r="I4" s="21">
+      <c r="I4" s="25">
         <f t="shared" si="2"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="J4" s="21">
+      <c r="J4" s="25">
         <f t="shared" si="2"/>
         <v>0.44444444444444442</v>
       </c>
-      <c r="K4" s="21">
+      <c r="K4" s="25">
         <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
-      <c r="L4" s="21">
+      <c r="L4" s="25">
         <f t="shared" si="2"/>
         <v>0.44444444444444442</v>
       </c>
-      <c r="M4" s="21">
+      <c r="M4" s="25">
         <f t="shared" si="2"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="N4" s="21">
+      <c r="N4" s="25">
         <f t="shared" si="2"/>
         <v>0.23529411764705882</v>
       </c>
-      <c r="O4" s="21">
+      <c r="O4" s="25">
         <f t="shared" si="2"/>
         <v>0.16666666666666666</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="1" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="B5" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="21">
+      <c r="C5" s="25">
         <f>1/((C10)^2-3*C10-2)</f>
         <v>6.25E-2</v>
       </c>
-      <c r="D5" s="21">
+      <c r="D5" s="25">
         <f t="shared" ref="D5:O5" si="3">1/((D10)^2-3*D10-2)</f>
         <v>8.5106382978723402E-2</v>
       </c>
-      <c r="E5" s="21">
+      <c r="E5" s="25">
         <f t="shared" si="3"/>
         <v>0.125</v>
       </c>
-      <c r="F5" s="21">
+      <c r="F5" s="25">
         <f t="shared" si="3"/>
         <v>0.21052631578947367</v>
       </c>
-      <c r="G5" s="21">
+      <c r="G5" s="25">
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
-      <c r="H5" s="21">
+      <c r="H5" s="25">
         <f t="shared" si="3"/>
         <v>-4</v>
       </c>
-      <c r="I5" s="21">
+      <c r="I5" s="25">
         <f t="shared" si="3"/>
         <v>-0.5</v>
       </c>
-      <c r="J5" s="21">
+      <c r="J5" s="25">
         <f t="shared" si="3"/>
         <v>-0.30769230769230771</v>
       </c>
-      <c r="K5" s="21">
+      <c r="K5" s="25">
         <f t="shared" si="3"/>
         <v>-0.25</v>
       </c>
-      <c r="L5" s="21">
+      <c r="L5" s="25">
         <f t="shared" si="3"/>
         <v>-0.23529411764705882</v>
       </c>
-      <c r="M5" s="21">
+      <c r="M5" s="25">
         <f t="shared" si="3"/>
         <v>-0.25</v>
       </c>
-      <c r="N5" s="21">
+      <c r="N5" s="25">
         <f t="shared" si="3"/>
         <v>-0.30769230769230771</v>
       </c>
-      <c r="O5" s="21">
+      <c r="O5" s="25">
         <f t="shared" si="3"/>
         <v>-0.5</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="1" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="B6" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="21">
+      <c r="C6" s="25">
         <f>1/((C10)^2)</f>
         <v>0.1111111111111111</v>
       </c>
-      <c r="D6" s="21">
+      <c r="D6" s="25">
         <f t="shared" ref="D6:O6" si="4">1/((D10)^2)</f>
         <v>0.16</v>
       </c>
-      <c r="E6" s="21">
+      <c r="E6" s="25">
         <f t="shared" si="4"/>
         <v>0.25</v>
       </c>
-      <c r="F6" s="21">
+      <c r="F6" s="25">
         <f t="shared" si="4"/>
         <v>0.44444444444444442</v>
       </c>
-      <c r="G6" s="21">
+      <c r="G6" s="25">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="H6" s="21">
+      <c r="H6" s="25">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="I6" s="21" t="e">
+      <c r="I6" s="25" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J6" s="21">
+      <c r="J6" s="25">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="K6" s="21">
+      <c r="K6" s="25">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="L6" s="21">
+      <c r="L6" s="25">
         <f t="shared" si="4"/>
         <v>0.44444444444444442</v>
       </c>
-      <c r="M6" s="21">
+      <c r="M6" s="25">
         <f t="shared" si="4"/>
         <v>0.25</v>
       </c>
-      <c r="N6" s="21">
+      <c r="N6" s="25">
         <f>1/((N10)^2)</f>
         <v>0.16</v>
       </c>
-      <c r="O6" s="21">
+      <c r="O6" s="25">
         <f t="shared" si="4"/>
         <v>0.1111111111111111</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B7" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="21" t="e">
+      <c r="C7" s="25" t="e">
         <f>1/(C10-INT(C10))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D7" s="21">
+      <c r="D7" s="25">
         <f t="shared" ref="D7:O7" si="5">1/(D10-INT(D10))</f>
         <v>2</v>
       </c>
-      <c r="E7" s="21" t="e">
+      <c r="E7" s="25" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F7" s="21">
+      <c r="F7" s="25">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="G7" s="21" t="e">
+      <c r="G7" s="25" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H7" s="21">
+      <c r="H7" s="25">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="I7" s="21" t="e">
+      <c r="I7" s="25" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J7" s="21">
+      <c r="J7" s="25">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="K7" s="21" t="e">
+      <c r="K7" s="25" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L7" s="21">
+      <c r="L7" s="25">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="M7" s="21" t="e">
+      <c r="M7" s="25" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N7" s="21">
+      <c r="N7" s="25">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="O7" s="21" t="e">
+      <c r="O7" s="25" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B8" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="21">
+      <c r="C8" s="25">
         <f>1/INT(C10)</f>
         <v>-0.33333333333333331</v>
       </c>
-      <c r="D8" s="21">
+      <c r="D8" s="25">
         <f t="shared" ref="D8:O8" si="6">1/INT(D10)</f>
         <v>-0.33333333333333331</v>
       </c>
-      <c r="E8" s="21">
+      <c r="E8" s="25">
         <f t="shared" si="6"/>
         <v>-0.5</v>
       </c>
-      <c r="F8" s="21">
+      <c r="F8" s="25">
         <f t="shared" si="6"/>
         <v>-0.5</v>
       </c>
-      <c r="G8" s="21">
+      <c r="G8" s="25">
         <f t="shared" si="6"/>
         <v>-1</v>
       </c>
-      <c r="H8" s="21">
+      <c r="H8" s="25">
         <f t="shared" si="6"/>
         <v>-1</v>
       </c>
-      <c r="I8" s="21" t="e">
+      <c r="I8" s="25" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J8" s="21" t="e">
+      <c r="J8" s="25" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K8" s="21">
+      <c r="K8" s="25">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="L8" s="21">
+      <c r="L8" s="25">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="M8" s="21">
+      <c r="M8" s="25">
         <f t="shared" si="6"/>
         <v>0.5</v>
       </c>
-      <c r="N8" s="21">
+      <c r="N8" s="25">
         <f t="shared" si="6"/>
         <v>0.5</v>
       </c>
-      <c r="O8" s="21">
+      <c r="O8" s="25">
         <f t="shared" si="6"/>
         <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B9" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="21">
+      <c r="C9" s="25">
         <f>1/C10</f>
         <v>-0.33333333333333331</v>
       </c>
-      <c r="D9" s="21">
+      <c r="D9" s="25">
         <f t="shared" ref="D9:O9" si="7">1/D10</f>
         <v>-0.4</v>
       </c>
-      <c r="E9" s="21">
+      <c r="E9" s="25">
         <f t="shared" si="7"/>
         <v>-0.5</v>
       </c>
-      <c r="F9" s="21">
+      <c r="F9" s="25">
         <f t="shared" si="7"/>
         <v>-0.66666666666666663</v>
       </c>
-      <c r="G9" s="21">
+      <c r="G9" s="25">
         <f t="shared" si="7"/>
         <v>-1</v>
       </c>
-      <c r="H9" s="21">
+      <c r="H9" s="25">
         <f t="shared" si="7"/>
         <v>-2</v>
       </c>
-      <c r="I9" s="21" t="e">
+      <c r="I9" s="25" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J9" s="21">
+      <c r="J9" s="25">
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
-      <c r="K9" s="21">
+      <c r="K9" s="25">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="L9" s="21">
+      <c r="L9" s="25">
         <f t="shared" si="7"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="M9" s="21">
+      <c r="M9" s="25">
         <f t="shared" si="7"/>
         <v>0.5</v>
       </c>
-      <c r="N9" s="21">
+      <c r="N9" s="25">
         <f t="shared" si="7"/>
         <v>0.4</v>
       </c>
-      <c r="O9" s="21">
+      <c r="O9" s="25">
         <f t="shared" si="7"/>
         <v>0.33333333333333331</v>
       </c>
@@ -7031,43 +7740,43 @@
       <c r="B10" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="22">
+      <c r="C10" s="26">
         <v>-3</v>
       </c>
-      <c r="D10" s="22">
+      <c r="D10" s="26">
         <v>-2.5</v>
       </c>
-      <c r="E10" s="22">
+      <c r="E10" s="26">
         <v>-2</v>
       </c>
-      <c r="F10" s="22">
+      <c r="F10" s="26">
         <v>-1.5</v>
       </c>
-      <c r="G10" s="22">
+      <c r="G10" s="26">
         <v>-1</v>
       </c>
-      <c r="H10" s="22">
+      <c r="H10" s="26">
         <v>-0.5</v>
       </c>
-      <c r="I10" s="22">
+      <c r="I10" s="26">
         <v>0</v>
       </c>
-      <c r="J10" s="22">
+      <c r="J10" s="26">
         <v>0.5</v>
       </c>
-      <c r="K10" s="22">
-        <v>1</v>
-      </c>
-      <c r="L10" s="22">
+      <c r="K10" s="26">
+        <v>1</v>
+      </c>
+      <c r="L10" s="26">
         <v>1.5</v>
       </c>
-      <c r="M10" s="22">
-        <v>2</v>
-      </c>
-      <c r="N10" s="22">
+      <c r="M10" s="26">
+        <v>2</v>
+      </c>
+      <c r="N10" s="26">
         <v>2.5</v>
       </c>
-      <c r="O10" s="22">
+      <c r="O10" s="26">
         <v>3</v>
       </c>
     </row>

--- a/issues+history/通过多个点绘制函数图像.xlsx
+++ b/issues+history/通过多个点绘制函数图像.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11012"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC920A1B-9914-6F4E-A688-51E6787442AF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4B628C3-003D-694D-9516-37ACDD1B9441}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="20480" windowHeight="12300" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="20480" windowHeight="12300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="幂函数" sheetId="1" r:id="rId1"/>
@@ -24,10 +24,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="82">
   <si>
-    <t>y=x^2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>x</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -36,38 +32,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>y=x^2+1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>y=x^2-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>y=(x-1)^2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>y=(x-1)^2+1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>y=(x-1)^2-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>y=2(x^2)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>y=(1/2)(x^2)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>y=(sqrt(3))(x^2)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>平移(上下左右四种情况)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -239,10 +203,6 @@
   </si>
   <si>
     <t>y=x/5+2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>y=x^4-2*x^3-x^2+2x</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -370,6 +330,46 @@
       </rPr>
       <t>-2x³-x²+2x]</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y=x²+1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y=x²</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y=x²-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y=(x-1)²</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y=(x-1)²+1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y=(x-1)²-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y=(1/2)(x²)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y=x⁴-2x³-x²+2x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y=2x²</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y=(√2)(x²)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -943,8 +943,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W47"/>
   <sheetViews>
-    <sheetView topLeftCell="A35" zoomScale="160" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="160" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="H41" sqref="H41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -963,19 +963,19 @@
   <sheetData>
     <row r="1" spans="1:23">
       <c r="B1" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:23">
       <c r="B2" t="s">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="C2" s="1"/>
     </row>
     <row r="3" spans="1:23">
       <c r="A3" s="9"/>
       <c r="B3" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3" s="4">
         <f t="shared" ref="C3:W3" si="0">C4^2</f>
@@ -1065,7 +1065,7 @@
     <row r="4" spans="1:23">
       <c r="A4" s="9"/>
       <c r="B4" s="6" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" s="7">
         <v>0</v>
@@ -1137,12 +1137,12 @@
     </row>
     <row r="6" spans="1:23">
       <c r="B6" s="1" t="s">
-        <v>3</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:23">
       <c r="B7" s="1" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="C7" s="4">
         <f t="shared" ref="C7:W7" si="1">C8^2+1</f>
@@ -1231,7 +1231,7 @@
     </row>
     <row r="8" spans="1:23">
       <c r="B8" s="1" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="C8" s="7">
         <v>0</v>
@@ -1302,12 +1302,12 @@
     </row>
     <row r="10" spans="1:23">
       <c r="B10" s="1" t="s">
-        <v>4</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:23">
       <c r="B11" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C11" s="4">
         <f t="shared" ref="C11" si="2">C12^2-1</f>
@@ -1396,7 +1396,7 @@
     </row>
     <row r="12" spans="1:23">
       <c r="B12" s="6" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12" s="7">
         <v>0</v>
@@ -1467,12 +1467,12 @@
     </row>
     <row r="14" spans="1:23">
       <c r="B14" s="1" t="s">
-        <v>5</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15" spans="1:23">
       <c r="B15" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C15" s="4">
         <f t="shared" ref="C15:W15" si="23">(C16-1)^2</f>
@@ -1561,7 +1561,7 @@
     </row>
     <row r="16" spans="1:23">
       <c r="B16" s="6" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C16" s="7">
         <v>0</v>
@@ -1632,12 +1632,12 @@
     </row>
     <row r="18" spans="2:23">
       <c r="B18" s="1" t="s">
-        <v>6</v>
+        <v>76</v>
       </c>
     </row>
     <row r="19" spans="2:23">
       <c r="B19" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C19" s="4">
         <f t="shared" ref="C19:W19" si="24">(C20-1)^2+1</f>
@@ -1726,7 +1726,7 @@
     </row>
     <row r="20" spans="2:23">
       <c r="B20" s="6" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C20" s="7">
         <v>0</v>
@@ -1797,12 +1797,12 @@
     </row>
     <row r="22" spans="2:23">
       <c r="B22" s="1" t="s">
-        <v>7</v>
+        <v>77</v>
       </c>
     </row>
     <row r="23" spans="2:23">
       <c r="B23" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C23" s="4">
         <f t="shared" ref="C23:W23" si="25">(C24-1)^2-1</f>
@@ -1891,7 +1891,7 @@
     </row>
     <row r="24" spans="2:23">
       <c r="B24" s="6" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C24" s="7">
         <v>0</v>
@@ -1959,17 +1959,17 @@
     </row>
     <row r="26" spans="2:23">
       <c r="B26" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="2:23">
       <c r="B27" s="1" t="s">
-        <v>0</v>
+        <v>73</v>
       </c>
     </row>
     <row r="28" spans="2:23">
       <c r="B28" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C28" s="4">
         <f t="shared" ref="C28:W28" si="26">C29^2</f>
@@ -2058,7 +2058,7 @@
     </row>
     <row r="29" spans="2:23">
       <c r="B29" s="6" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C29" s="7">
         <v>0</v>
@@ -2126,12 +2126,12 @@
     </row>
     <row r="31" spans="2:23">
       <c r="B31" s="1" t="s">
-        <v>8</v>
+        <v>80</v>
       </c>
     </row>
     <row r="32" spans="2:23">
       <c r="B32" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C32" s="4">
         <f t="shared" ref="C32:M32" si="27">2*(C33^2)</f>
@@ -2220,7 +2220,7 @@
     </row>
     <row r="33" spans="2:23">
       <c r="B33" s="6" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C33" s="7">
         <v>0</v>
@@ -2288,12 +2288,12 @@
     </row>
     <row r="35" spans="2:23">
       <c r="B35" s="1" t="s">
-        <v>9</v>
+        <v>78</v>
       </c>
     </row>
     <row r="36" spans="2:23">
       <c r="B36" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C36" s="4">
         <f t="shared" ref="C36:J36" si="29">(1/2)*(C37^2)</f>
@@ -2382,7 +2382,7 @@
     </row>
     <row r="37" spans="2:23">
       <c r="B37" s="6" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C37" s="7">
         <v>0</v>
@@ -2449,13 +2449,13 @@
       </c>
     </row>
     <row r="39" spans="2:23">
-      <c r="B39" s="1" t="s">
-        <v>10</v>
+      <c r="C39" s="1" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="40" spans="2:23">
       <c r="B40" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C40" s="4">
         <f t="shared" ref="C40:M40" si="31">(SQRT(3))*(C41^2)</f>
@@ -2544,7 +2544,7 @@
     </row>
     <row r="41" spans="2:23">
       <c r="B41" s="6" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C41" s="7">
         <v>0</v>
@@ -2612,12 +2612,12 @@
     </row>
     <row r="43" spans="2:23">
       <c r="B43" s="1" t="s">
-        <v>55</v>
+        <v>79</v>
       </c>
     </row>
     <row r="44" spans="2:23">
       <c r="B44" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C44" s="4">
         <f>C45^4 - 2*C45^3 - C45^2 + 2*C45</f>
@@ -2682,7 +2682,7 @@
     </row>
     <row r="45" spans="2:23">
       <c r="B45" s="6" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C45" s="7">
         <v>-2</v>
@@ -2744,8 +2744,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Y49"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" zoomScale="125" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView topLeftCell="A30" zoomScale="125" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -2764,18 +2764,18 @@
   <sheetData>
     <row r="1" spans="1:23">
       <c r="B1" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:23">
       <c r="B2" s="1" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:23">
       <c r="A3" s="9"/>
       <c r="B3" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3" s="4">
         <f t="shared" ref="C3:W3" si="0">C4</f>
@@ -2865,7 +2865,7 @@
     <row r="4" spans="1:23">
       <c r="A4" s="9"/>
       <c r="B4" s="6" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" s="7">
         <v>0</v>
@@ -2937,12 +2937,12 @@
     </row>
     <row r="6" spans="1:23">
       <c r="B6" s="1" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:23">
       <c r="B7" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C7" s="4">
         <f>C8+3</f>
@@ -3031,7 +3031,7 @@
     </row>
     <row r="8" spans="1:23">
       <c r="B8" s="6" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8" s="7">
         <v>0</v>
@@ -3102,12 +3102,12 @@
     </row>
     <row r="10" spans="1:23">
       <c r="B10" s="1" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:23">
       <c r="B11" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C11" s="4">
         <f>C12-5</f>
@@ -3196,7 +3196,7 @@
     </row>
     <row r="12" spans="1:23">
       <c r="B12" s="6" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12" s="7">
         <v>0</v>
@@ -3288,17 +3288,17 @@
     </row>
     <row r="14" spans="1:23">
       <c r="B14" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:23">
       <c r="B15" s="1" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:23">
       <c r="B16" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C16" s="4">
         <f t="shared" ref="C16:L16" si="3">(1/2)*C17</f>
@@ -3387,7 +3387,7 @@
     </row>
     <row r="17" spans="1:25">
       <c r="B17" s="6" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C17" s="7">
         <v>0</v>
@@ -3458,12 +3458,12 @@
     </row>
     <row r="19" spans="1:25">
       <c r="B19" s="1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:25">
       <c r="B20" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C20" s="4">
         <f>(1/4)*C21</f>
@@ -3552,7 +3552,7 @@
     </row>
     <row r="21" spans="1:25">
       <c r="B21" s="6" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C21" s="7">
         <v>0</v>
@@ -3623,12 +3623,12 @@
     </row>
     <row r="23" spans="1:25">
       <c r="B23" s="1" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="24" spans="1:25">
       <c r="B24" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C24" s="4">
         <f>(1/8)*C25</f>
@@ -3717,7 +3717,7 @@
     </row>
     <row r="25" spans="1:25">
       <c r="B25" s="6" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C25" s="7">
         <v>0</v>
@@ -3786,7 +3786,7 @@
     <row r="27" spans="1:25">
       <c r="A27" s="9"/>
       <c r="B27" s="12" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="X27" s="9"/>
       <c r="Y27" s="9"/>
@@ -3794,7 +3794,7 @@
     <row r="28" spans="1:25">
       <c r="A28" s="9"/>
       <c r="B28" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C28" s="4">
         <f>2*C29</f>
@@ -3886,7 +3886,7 @@
     <row r="29" spans="1:25">
       <c r="A29" s="9"/>
       <c r="B29" s="6" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C29" s="7">
         <v>0</v>
@@ -3963,7 +3963,7 @@
     <row r="31" spans="1:25">
       <c r="A31" s="9"/>
       <c r="B31" s="12" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="X31" s="9"/>
       <c r="Y31" s="9"/>
@@ -3971,7 +3971,7 @@
     <row r="32" spans="1:25">
       <c r="A32" s="9"/>
       <c r="B32" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C32" s="4">
         <f>3*C33</f>
@@ -4063,7 +4063,7 @@
     <row r="33" spans="1:25">
       <c r="A33" s="9"/>
       <c r="B33" s="6" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C33" s="7">
         <v>0</v>
@@ -4161,7 +4161,7 @@
     <row r="35" spans="1:25">
       <c r="A35" s="9"/>
       <c r="B35" s="12" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="X35" s="9"/>
       <c r="Y35" s="9"/>
@@ -4169,7 +4169,7 @@
     <row r="36" spans="1:25">
       <c r="A36" s="9"/>
       <c r="B36" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C36" s="4">
         <f>4*C37</f>
@@ -4261,7 +4261,7 @@
     <row r="37" spans="1:25">
       <c r="A37" s="9"/>
       <c r="B37" s="6" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C37" s="7">
         <v>0</v>
@@ -4677,10 +4677,10 @@
   <sheetData>
     <row r="3" spans="1:23">
       <c r="A3" s="9" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3" s="4">
         <f>4*C12+2</f>
@@ -4769,10 +4769,10 @@
     </row>
     <row r="4" spans="1:23">
       <c r="A4" s="9" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4" s="4">
         <f>3*C12+2</f>
@@ -4861,10 +4861,10 @@
     </row>
     <row r="5" spans="1:23">
       <c r="A5" s="9" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C5" s="4">
         <f>2*C12+2</f>
@@ -4953,10 +4953,10 @@
     </row>
     <row r="6" spans="1:23">
       <c r="A6" s="9" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C6" s="4">
         <f>C12+2</f>
@@ -5045,10 +5045,10 @@
     </row>
     <row r="7" spans="1:23">
       <c r="A7" s="9" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C7" s="4">
         <f>0*C12+2</f>
@@ -5137,10 +5137,10 @@
     </row>
     <row r="8" spans="1:23">
       <c r="A8" s="9" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C8" s="4">
         <f>-C12+2</f>
@@ -5229,10 +5229,10 @@
     </row>
     <row r="9" spans="1:23">
       <c r="A9" s="9" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C9" s="4">
         <f>-2*C12+2</f>
@@ -5321,10 +5321,10 @@
     </row>
     <row r="10" spans="1:23">
       <c r="A10" s="9" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C10" s="13">
         <f>-3*C12+2</f>
@@ -5413,10 +5413,10 @@
     </row>
     <row r="11" spans="1:23">
       <c r="A11" s="9" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C11" s="13">
         <f>-4*C12+2</f>
@@ -5506,7 +5506,7 @@
     <row r="12" spans="1:23">
       <c r="A12" s="9"/>
       <c r="B12" s="15" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12" s="16">
         <v>0</v>
@@ -5582,7 +5582,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3107E846-15C1-5647-95A4-8C0C6DE4C6EE}">
   <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView zoomScale="182" workbookViewId="0">
+    <sheetView topLeftCell="A24" zoomScale="182" workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
@@ -5598,10 +5598,10 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="20" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" s="13">
         <f>45*$C$26+2</f>
@@ -5614,10 +5614,10 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="20" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3" s="13">
         <f>40*$C$26+2</f>
@@ -5630,10 +5630,10 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="20" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4" s="13">
         <f>35*$C$26+2</f>
@@ -5646,10 +5646,10 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="20" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C5" s="13">
         <f>30*$C$26+2</f>
@@ -5662,10 +5662,10 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="20" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C6" s="13">
         <f>25*$C$26+2</f>
@@ -5678,10 +5678,10 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="20" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C7" s="13">
         <f>20*$C$26+2</f>
@@ -5694,10 +5694,10 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="20" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C8" s="13">
         <f>15*$C$26+2</f>
@@ -5710,10 +5710,10 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="20" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C9" s="13">
         <f>14*$C$26+2</f>
@@ -5726,10 +5726,10 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="20" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C10" s="13">
         <f>13*$C$26+2</f>
@@ -5742,10 +5742,10 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="20" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C11" s="13">
         <f>12*$C$26+2</f>
@@ -5758,10 +5758,10 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="20" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C12" s="13">
         <f>11*$C$26+2</f>
@@ -5774,10 +5774,10 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="20" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C13" s="13">
         <f>10*$C$26+2</f>
@@ -5790,10 +5790,10 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="20" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C14" s="13">
         <f>9*$C$26+2</f>
@@ -5806,10 +5806,10 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="20" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C15" s="13">
         <f>8*$C$26+2</f>
@@ -5822,10 +5822,10 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="20" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C16" s="13">
         <f>7*$C$26+2</f>
@@ -5838,10 +5838,10 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="20" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="B17" s="19" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C17" s="13">
         <f>6*$C$26+2</f>
@@ -5854,10 +5854,10 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="20" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="B18" s="19" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C18" s="13">
         <f>5*$C$26+2</f>
@@ -5870,10 +5870,10 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="9" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B19" s="19" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C19" s="13">
         <f>4*$C$26+2</f>
@@ -5886,10 +5886,10 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="9" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B20" s="19" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C20" s="13">
         <f t="shared" ref="C20" si="0">2*$C$26+2</f>
@@ -5902,10 +5902,10 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="9" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C21" s="13">
         <f>2*$C$26+2</f>
@@ -5918,10 +5918,10 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="9" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="B22" s="19" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C22" s="13">
         <f>$C$26+2</f>
@@ -5934,10 +5934,10 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="9" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="B23" s="19" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C23" s="13">
         <f>$C$26/2+2</f>
@@ -5950,10 +5950,10 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="9" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="B24" s="19" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C24" s="13">
         <f>$C$26/5+2</f>
@@ -5966,10 +5966,10 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="9" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="B25" s="19" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C25" s="13">
         <f>$C$26/10+2</f>
@@ -5983,7 +5983,7 @@
     <row r="26" spans="1:4">
       <c r="A26" s="9"/>
       <c r="B26" s="15" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C26" s="16">
         <v>0</v>
@@ -6003,7 +6003,7 @@
   <dimension ref="A6:M12"/>
   <sheetViews>
     <sheetView zoomScale="171" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
@@ -6018,10 +6018,10 @@
   <sheetData>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C6">
         <f>1/(C12+1)+1/(C12-1)</f>
@@ -6070,10 +6070,10 @@
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C7">
         <f>(C12^2+1)/C12</f>
@@ -6122,10 +6122,10 @@
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C8">
         <f>C12/(C12^2+1)</f>
@@ -6174,10 +6174,10 @@
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C9">
         <f>(C12-1)/(C12^2+2*C12+1)</f>
@@ -6226,10 +6226,10 @@
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="1" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C10">
         <f>1/(3*C12^2-1)</f>
@@ -6278,10 +6278,10 @@
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="1" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C11" s="21">
         <f t="shared" ref="C11:G11" si="5">1/(C12^2+1)</f>
@@ -6331,7 +6331,7 @@
     <row r="12" spans="1:13">
       <c r="A12" s="9"/>
       <c r="B12" s="15" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12" s="22">
         <v>-5</v>
@@ -6381,7 +6381,7 @@
   <dimension ref="A2:O8"/>
   <sheetViews>
     <sheetView zoomScale="180" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A2" sqref="A2:O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
@@ -6392,10 +6392,10 @@
   <sheetData>
     <row r="2" spans="1:15">
       <c r="A2" s="1" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2">
         <f>1/(C8^2 - 2*ABS(C8) + 2)</f>
@@ -6452,10 +6452,10 @@
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="1" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3" s="21">
         <f>ABS(C8+1)+ABS(C8-1)</f>
@@ -6512,10 +6512,10 @@
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="1" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4" s="21">
         <f>ABS(C8-1)</f>
@@ -6572,10 +6572,10 @@
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="1" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C5" s="21">
         <f>ABS(C8+1)</f>
@@ -6632,10 +6632,10 @@
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="1" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C6" s="21">
         <f>ABS(C8)+1</f>
@@ -6692,10 +6692,10 @@
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="1" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C7" s="21">
         <f>ABS(C8)</f>
@@ -6753,7 +6753,7 @@
     <row r="8" spans="1:15">
       <c r="A8" s="9"/>
       <c r="B8" s="15" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8" s="22">
         <v>-3</v>
@@ -6806,21 +6806,21 @@
   <dimension ref="A2:O8"/>
   <sheetViews>
     <sheetView zoomScale="175" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="15.83203125" customWidth="1"/>
+    <col min="1" max="1" width="15.33203125" customWidth="1"/>
     <col min="2" max="15" width="4.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:15">
       <c r="A2" s="1" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2">
         <f t="shared" ref="C2:O2" si="0">INT(C8^4 - 2*C8^3 - C8^2 + 2*C8)</f>
@@ -6877,10 +6877,10 @@
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="1" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3" s="21">
         <f>INT(C8+1)+INT(C8-1)</f>
@@ -6937,10 +6937,10 @@
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="1" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4" s="21">
         <f>INT(C8-1)</f>
@@ -6997,10 +6997,10 @@
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="1" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C5" s="21">
         <f>INT(C8+1)</f>
@@ -7057,10 +7057,10 @@
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="1" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C6" s="21">
         <f>INT(C8)-1</f>
@@ -7117,10 +7117,10 @@
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="1" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C7" s="21">
         <f t="shared" ref="C7:O7" si="5">INT(C8)</f>
@@ -7178,7 +7178,7 @@
     <row r="8" spans="1:15">
       <c r="A8" s="9"/>
       <c r="B8" s="15" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8" s="22">
         <v>-3</v>
@@ -7233,13 +7233,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D923309-C7BC-3F43-959F-6935678EA5DF}">
   <dimension ref="A2:O10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="134" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView zoomScale="134" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="15" customWidth="1"/>
+    <col min="1" max="1" width="16.33203125" customWidth="1"/>
     <col min="2" max="2" width="2.83203125" customWidth="1"/>
     <col min="3" max="3" width="7.6640625" style="27" customWidth="1"/>
     <col min="4" max="4" width="6.6640625" style="27" customWidth="1"/>
@@ -7257,10 +7257,10 @@
   <sheetData>
     <row r="2" spans="1:15">
       <c r="A2" s="1" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" s="25">
         <f>INT((2*(C10)+1)/(C10+1))</f>
@@ -7317,10 +7317,10 @@
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="1" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3" s="25">
         <f>(3*C10+5)/(2*C10+2)</f>
@@ -7377,10 +7377,10 @@
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="1" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4" s="25">
         <f>1/((C10)^2-2*C10+3)</f>
@@ -7437,10 +7437,10 @@
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="1" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C5" s="25">
         <f>1/((C10)^2-3*C10-2)</f>
@@ -7497,10 +7497,10 @@
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="1" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C6" s="25">
         <f>1/((C10)^2)</f>
@@ -7557,10 +7557,10 @@
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="1" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C7" s="25" t="e">
         <f>1/(C10-INT(C10))</f>
@@ -7617,10 +7617,10 @@
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="1" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C8" s="25">
         <f>1/INT(C10)</f>
@@ -7677,10 +7677,10 @@
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="1" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C9" s="25">
         <f>1/C10</f>
@@ -7738,7 +7738,7 @@
     <row r="10" spans="1:15">
       <c r="A10" s="9"/>
       <c r="B10" s="15" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10" s="26">
         <v>-3</v>

--- a/issues+history/通过多个点绘制函数图像.xlsx
+++ b/issues+history/通过多个点绘制函数图像.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11012"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4B628C3-003D-694D-9516-37ACDD1B9441}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D4F11F2-3618-9B4A-A1D7-306E41447FE3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="20480" windowHeight="12300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="20480" windowHeight="12300" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="幂函数" sheetId="1" r:id="rId1"/>
@@ -16,13 +16,14 @@
     <sheet name="绝对值函数" sheetId="6" r:id="rId6"/>
     <sheet name="取整函数（高斯取整）" sheetId="7" r:id="rId7"/>
     <sheet name="分式线性函数" sheetId="8" r:id="rId8"/>
+    <sheet name="二次三项式" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="96">
   <si>
     <t>x</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -370,6 +371,62 @@
   </si>
   <si>
     <t>y=(√2)(x²)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y=x²+x-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y=x²+3x+5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y=2x²+3x+5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y=(x+1)²+2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y=x²+2x+3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y=(1/2)x²-3x+6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y=x²-3x+2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y=(x-1)(x-2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y=(x-3/2)²-1/4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y=x-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y=x(x+1)(x-1)(x-2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y=x²(x+1)²(x-1)²(x-2)²</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y=[x]²</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y=(x-[x])²</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -943,7 +1000,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="160" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScale="160" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="H41" sqref="H41"/>
     </sheetView>
   </sheetViews>
@@ -6003,7 +6060,7 @@
   <dimension ref="A6:M12"/>
   <sheetViews>
     <sheetView zoomScale="171" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
@@ -6381,7 +6438,7 @@
   <dimension ref="A2:O8"/>
   <sheetViews>
     <sheetView zoomScale="180" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:O8"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
@@ -6806,7 +6863,7 @@
   <dimension ref="A2:O8"/>
   <sheetViews>
     <sheetView zoomScale="175" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
@@ -7234,7 +7291,7 @@
   <dimension ref="A2:O10"/>
   <sheetViews>
     <sheetView zoomScale="134" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
@@ -7787,4 +7844,1078 @@
     <ignoredError sqref="C3" formula="1"/>
   </ignoredErrors>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B11E436-BE8B-F544-BBB7-970B9CDC84E6}">
+  <dimension ref="B2:P21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="1.5" customWidth="1"/>
+    <col min="2" max="2" width="20.83203125" customWidth="1"/>
+    <col min="3" max="3" width="1.83203125" customWidth="1"/>
+    <col min="4" max="4" width="8.33203125" customWidth="1"/>
+    <col min="5" max="5" width="7.1640625" customWidth="1"/>
+    <col min="6" max="6" width="5.5" customWidth="1"/>
+    <col min="7" max="7" width="4.83203125" customWidth="1"/>
+    <col min="8" max="8" width="4.33203125" customWidth="1"/>
+    <col min="9" max="9" width="4.83203125" customWidth="1"/>
+    <col min="10" max="10" width="3.1640625" customWidth="1"/>
+    <col min="11" max="11" width="4.83203125" customWidth="1"/>
+    <col min="12" max="12" width="4.5" customWidth="1"/>
+    <col min="13" max="13" width="4.83203125" customWidth="1"/>
+    <col min="14" max="14" width="5.6640625" customWidth="1"/>
+    <col min="15" max="15" width="7.1640625" customWidth="1"/>
+    <col min="16" max="16" width="9" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:16">
+      <c r="B2" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="21">
+        <f>(D21-INT(D21))^2</f>
+        <v>0</v>
+      </c>
+      <c r="E2" s="21">
+        <f t="shared" ref="E2:P2" si="0">(E21-INT(E21))^2</f>
+        <v>0.25</v>
+      </c>
+      <c r="F2" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G2" s="21">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+      <c r="H2" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I2" s="21">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+      <c r="J2" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K2" s="21">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+      <c r="L2" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M2" s="21">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+      <c r="N2" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O2" s="21">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+      <c r="P2" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="2:16">
+      <c r="B3" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="21">
+        <f>INT(D21)^2</f>
+        <v>9</v>
+      </c>
+      <c r="E3" s="21">
+        <f t="shared" ref="E3:P3" si="1">INT(E21)^2</f>
+        <v>9</v>
+      </c>
+      <c r="F3" s="21">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="G3" s="21">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="H3" s="21">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="I3" s="21">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J3" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K3" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L3" s="21">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="M3" s="21">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="N3" s="21">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="O3" s="21">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="P3" s="21">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="2:16">
+      <c r="B4" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="21">
+        <f>D20^2*(D20+1)^2*(D20-1)^2*(D20-2)^2</f>
+        <v>25401600</v>
+      </c>
+      <c r="E4" s="21">
+        <f t="shared" ref="E4:P4" si="2">E20^2*(E20+1)^2*(E20-1)^2*(E20-2)^2</f>
+        <v>1022192.0871734619</v>
+      </c>
+      <c r="F4" s="21">
+        <f t="shared" si="2"/>
+        <v>14400</v>
+      </c>
+      <c r="G4" s="21">
+        <f t="shared" si="2"/>
+        <v>5.2219390869140625</v>
+      </c>
+      <c r="H4" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I4" s="21">
+        <f t="shared" si="2"/>
+        <v>0.1682281494140625</v>
+      </c>
+      <c r="J4" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K4" s="21">
+        <f t="shared" si="2"/>
+        <v>0.1682281494140625</v>
+      </c>
+      <c r="L4" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M4" s="21">
+        <f t="shared" si="2"/>
+        <v>5.2219390869140625</v>
+      </c>
+      <c r="N4" s="21">
+        <f t="shared" si="2"/>
+        <v>14400</v>
+      </c>
+      <c r="O4" s="21">
+        <f t="shared" si="2"/>
+        <v>1022192.0871734619</v>
+      </c>
+      <c r="P4" s="21">
+        <f t="shared" si="2"/>
+        <v>25401600</v>
+      </c>
+    </row>
+    <row r="5" spans="2:16">
+      <c r="B5" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="21">
+        <f>D21*(D21+1)*(D21-1)*(D21-2)</f>
+        <v>120</v>
+      </c>
+      <c r="E5" s="21">
+        <f t="shared" ref="E5:P5" si="3">E21*(E21+1)*(E21-1)*(E21-2)</f>
+        <v>59.0625</v>
+      </c>
+      <c r="F5" s="21">
+        <f t="shared" si="3"/>
+        <v>24</v>
+      </c>
+      <c r="G5" s="21">
+        <f t="shared" si="3"/>
+        <v>6.5625</v>
+      </c>
+      <c r="H5" s="21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I5" s="21">
+        <f t="shared" si="3"/>
+        <v>-0.9375</v>
+      </c>
+      <c r="J5" s="21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K5" s="21">
+        <f t="shared" si="3"/>
+        <v>0.5625</v>
+      </c>
+      <c r="L5" s="21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M5" s="21">
+        <f t="shared" si="3"/>
+        <v>-0.9375</v>
+      </c>
+      <c r="N5" s="21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O5" s="21">
+        <f t="shared" si="3"/>
+        <v>6.5625</v>
+      </c>
+      <c r="P5" s="21">
+        <f t="shared" si="3"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="2:16">
+      <c r="B6" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="21">
+        <f>(D21-1)^2</f>
+        <v>16</v>
+      </c>
+      <c r="E6" s="21">
+        <f t="shared" ref="E6:P6" si="4">(E21-1)^2</f>
+        <v>12.25</v>
+      </c>
+      <c r="F6" s="21">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="G6" s="21">
+        <f t="shared" si="4"/>
+        <v>6.25</v>
+      </c>
+      <c r="H6" s="21">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="I6" s="21">
+        <f t="shared" si="4"/>
+        <v>2.25</v>
+      </c>
+      <c r="J6" s="21">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="K6" s="21">
+        <f t="shared" si="4"/>
+        <v>0.25</v>
+      </c>
+      <c r="L6" s="21">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M6" s="21">
+        <f t="shared" si="4"/>
+        <v>0.25</v>
+      </c>
+      <c r="N6" s="21">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="O6" s="21">
+        <f t="shared" si="4"/>
+        <v>2.25</v>
+      </c>
+      <c r="P6" s="21">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="2:16">
+      <c r="B7" t="s">
+        <v>91</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="21">
+        <f>D21-1</f>
+        <v>-4</v>
+      </c>
+      <c r="E7" s="21">
+        <f t="shared" ref="E7:P7" si="5">E21-1</f>
+        <v>-3.5</v>
+      </c>
+      <c r="F7" s="21">
+        <f t="shared" si="5"/>
+        <v>-3</v>
+      </c>
+      <c r="G7" s="21">
+        <f t="shared" si="5"/>
+        <v>-2.5</v>
+      </c>
+      <c r="H7" s="21">
+        <f t="shared" si="5"/>
+        <v>-2</v>
+      </c>
+      <c r="I7" s="21">
+        <f t="shared" si="5"/>
+        <v>-1.5</v>
+      </c>
+      <c r="J7" s="21">
+        <f t="shared" si="5"/>
+        <v>-1</v>
+      </c>
+      <c r="K7" s="21">
+        <f t="shared" si="5"/>
+        <v>-0.5</v>
+      </c>
+      <c r="L7" s="21">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M7" s="21">
+        <f t="shared" si="5"/>
+        <v>0.5</v>
+      </c>
+      <c r="N7" s="21">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="O7" s="21">
+        <f t="shared" si="5"/>
+        <v>1.5</v>
+      </c>
+      <c r="P7" s="21">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:16" ht="5" customHeight="1"/>
+    <row r="9" spans="2:16">
+      <c r="B9" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="21">
+        <f>(D21-3/2)^2-1/4</f>
+        <v>20</v>
+      </c>
+      <c r="E9" s="21">
+        <f t="shared" ref="E9:P9" si="6">(E21-3/2)^2-1/4</f>
+        <v>15.75</v>
+      </c>
+      <c r="F9" s="21">
+        <f t="shared" si="6"/>
+        <v>12</v>
+      </c>
+      <c r="G9" s="21">
+        <f t="shared" si="6"/>
+        <v>8.75</v>
+      </c>
+      <c r="H9" s="21">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="I9" s="21">
+        <f t="shared" si="6"/>
+        <v>3.75</v>
+      </c>
+      <c r="J9" s="21">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="K9" s="21">
+        <f t="shared" si="6"/>
+        <v>0.75</v>
+      </c>
+      <c r="L9" s="21">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M9" s="21">
+        <f t="shared" si="6"/>
+        <v>-0.25</v>
+      </c>
+      <c r="N9" s="21">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O9" s="21">
+        <f t="shared" si="6"/>
+        <v>0.75</v>
+      </c>
+      <c r="P9" s="21">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:16">
+      <c r="B10" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <f>(D21-1)*(D21-2)</f>
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <f t="shared" ref="E10:P10" si="7">(E21-1)*(E21-2)</f>
+        <v>15.75</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="7"/>
+        <v>12</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="7"/>
+        <v>8.75</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="7"/>
+        <v>3.75</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="7"/>
+        <v>0.75</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="7"/>
+        <v>-0.25</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="7"/>
+        <v>0.75</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:16">
+      <c r="B11" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" s="21">
+        <f>D21^2-3*D21+2</f>
+        <v>20</v>
+      </c>
+      <c r="E11" s="21">
+        <f t="shared" ref="E11:P11" si="8">E21^2-3*E21+2</f>
+        <v>15.75</v>
+      </c>
+      <c r="F11" s="21">
+        <f t="shared" si="8"/>
+        <v>12</v>
+      </c>
+      <c r="G11" s="21">
+        <f t="shared" si="8"/>
+        <v>8.75</v>
+      </c>
+      <c r="H11" s="21">
+        <f t="shared" si="8"/>
+        <v>6</v>
+      </c>
+      <c r="I11" s="21">
+        <f t="shared" si="8"/>
+        <v>3.75</v>
+      </c>
+      <c r="J11" s="21">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="K11" s="21">
+        <f t="shared" si="8"/>
+        <v>0.75</v>
+      </c>
+      <c r="L11" s="21">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M11" s="21">
+        <f t="shared" si="8"/>
+        <v>-0.25</v>
+      </c>
+      <c r="N11" s="21">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="O11" s="21">
+        <f t="shared" si="8"/>
+        <v>0.75</v>
+      </c>
+      <c r="P11" s="21">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="2:16" ht="6" customHeight="1">
+      <c r="B12" s="1"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="21"/>
+      <c r="M12" s="21"/>
+      <c r="N12" s="21"/>
+      <c r="O12" s="21"/>
+      <c r="P12" s="21"/>
+    </row>
+    <row r="13" spans="2:16">
+      <c r="B13" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="21">
+        <f>D21^2+2*D21+3</f>
+        <v>6</v>
+      </c>
+      <c r="E13" s="21">
+        <f t="shared" ref="E13:P13" si="9">E21^2+2*E21+3</f>
+        <v>4.25</v>
+      </c>
+      <c r="F13" s="21">
+        <f t="shared" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="G13" s="21">
+        <f t="shared" si="9"/>
+        <v>2.25</v>
+      </c>
+      <c r="H13" s="21">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="I13" s="21">
+        <f t="shared" si="9"/>
+        <v>2.25</v>
+      </c>
+      <c r="J13" s="21">
+        <f t="shared" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="K13" s="21">
+        <f t="shared" si="9"/>
+        <v>4.25</v>
+      </c>
+      <c r="L13" s="21">
+        <f t="shared" si="9"/>
+        <v>6</v>
+      </c>
+      <c r="M13" s="21">
+        <f t="shared" si="9"/>
+        <v>8.25</v>
+      </c>
+      <c r="N13" s="21">
+        <f t="shared" si="9"/>
+        <v>11</v>
+      </c>
+      <c r="O13" s="21">
+        <f t="shared" si="9"/>
+        <v>14.25</v>
+      </c>
+      <c r="P13" s="21">
+        <f t="shared" si="9"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="2:16">
+      <c r="B14" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" s="21">
+        <f>(D21+1)^2+2</f>
+        <v>6</v>
+      </c>
+      <c r="E14" s="21">
+        <f t="shared" ref="E14:P14" si="10">(E21+1)^2+2</f>
+        <v>4.25</v>
+      </c>
+      <c r="F14" s="21">
+        <f t="shared" si="10"/>
+        <v>3</v>
+      </c>
+      <c r="G14" s="21">
+        <f t="shared" si="10"/>
+        <v>2.25</v>
+      </c>
+      <c r="H14" s="21">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="I14" s="21">
+        <f t="shared" si="10"/>
+        <v>2.25</v>
+      </c>
+      <c r="J14" s="21">
+        <f t="shared" si="10"/>
+        <v>3</v>
+      </c>
+      <c r="K14" s="21">
+        <f t="shared" si="10"/>
+        <v>4.25</v>
+      </c>
+      <c r="L14" s="21">
+        <f t="shared" si="10"/>
+        <v>6</v>
+      </c>
+      <c r="M14" s="21">
+        <f t="shared" si="10"/>
+        <v>8.25</v>
+      </c>
+      <c r="N14" s="21">
+        <f t="shared" si="10"/>
+        <v>11</v>
+      </c>
+      <c r="O14" s="21">
+        <f t="shared" si="10"/>
+        <v>14.25</v>
+      </c>
+      <c r="P14" s="21">
+        <f t="shared" si="10"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="2:16" ht="6" customHeight="1">
+      <c r="B15" s="1"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="21"/>
+      <c r="L15" s="21"/>
+      <c r="M15" s="21"/>
+      <c r="N15" s="21"/>
+      <c r="O15" s="21"/>
+      <c r="P15" s="21"/>
+    </row>
+    <row r="16" spans="2:16">
+      <c r="B16" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16" s="21">
+        <f>(1/2)*D21^2-3*D21+6</f>
+        <v>19.5</v>
+      </c>
+      <c r="E16" s="21">
+        <f t="shared" ref="E16:P16" si="11">(1/2)*E21^2-3*E21+6</f>
+        <v>16.625</v>
+      </c>
+      <c r="F16" s="21">
+        <f t="shared" si="11"/>
+        <v>14</v>
+      </c>
+      <c r="G16" s="21">
+        <f t="shared" si="11"/>
+        <v>11.625</v>
+      </c>
+      <c r="H16" s="21">
+        <f t="shared" si="11"/>
+        <v>9.5</v>
+      </c>
+      <c r="I16" s="21">
+        <f t="shared" si="11"/>
+        <v>7.625</v>
+      </c>
+      <c r="J16" s="21">
+        <f t="shared" si="11"/>
+        <v>6</v>
+      </c>
+      <c r="K16" s="21">
+        <f t="shared" si="11"/>
+        <v>4.625</v>
+      </c>
+      <c r="L16" s="21">
+        <f t="shared" si="11"/>
+        <v>3.5</v>
+      </c>
+      <c r="M16" s="21">
+        <f t="shared" si="11"/>
+        <v>2.625</v>
+      </c>
+      <c r="N16" s="21">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="O16" s="21">
+        <f t="shared" si="11"/>
+        <v>1.625</v>
+      </c>
+      <c r="P16" s="21">
+        <f t="shared" si="11"/>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="17" spans="2:16">
+      <c r="B17" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="D17" s="21">
+        <f>2*D21^2+3*D21+5</f>
+        <v>14</v>
+      </c>
+      <c r="E17" s="21">
+        <f>2*E21^2+3*E21+5</f>
+        <v>10</v>
+      </c>
+      <c r="F17" s="21">
+        <f>2*F21^2+3*F21+5</f>
+        <v>7</v>
+      </c>
+      <c r="G17" s="21">
+        <f>2*G21^2+3*G21+5</f>
+        <v>5</v>
+      </c>
+      <c r="H17" s="21">
+        <f>2*H21^2+3*H21+5</f>
+        <v>4</v>
+      </c>
+      <c r="I17" s="21">
+        <f>2*I21^2+3*I21+5</f>
+        <v>4</v>
+      </c>
+      <c r="J17" s="21">
+        <f>2*J21^2+3*J21+5</f>
+        <v>5</v>
+      </c>
+      <c r="K17" s="21">
+        <f>2*K21^2+3*K21+5</f>
+        <v>7</v>
+      </c>
+      <c r="L17" s="21">
+        <f>2*L21^2+3*L21+5</f>
+        <v>10</v>
+      </c>
+      <c r="M17" s="21">
+        <f>2*M21^2+3*M21+5</f>
+        <v>14</v>
+      </c>
+      <c r="N17" s="21">
+        <f>2*N21^2+3*N21+5</f>
+        <v>19</v>
+      </c>
+      <c r="O17" s="21">
+        <f>2*O21^2+3*O21+5</f>
+        <v>25</v>
+      </c>
+      <c r="P17" s="21">
+        <f>2*P21^2+3*P21+5</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="2:16">
+      <c r="B18" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C18" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="D18" s="21">
+        <f>D21^2+3*D21+5</f>
+        <v>5</v>
+      </c>
+      <c r="E18" s="21">
+        <f t="shared" ref="E18:P18" si="12">E21^2+3*E21+5</f>
+        <v>3.75</v>
+      </c>
+      <c r="F18" s="21">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="G18" s="21">
+        <f t="shared" si="12"/>
+        <v>2.75</v>
+      </c>
+      <c r="H18" s="21">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="I18" s="21">
+        <f t="shared" si="12"/>
+        <v>3.75</v>
+      </c>
+      <c r="J18" s="21">
+        <f t="shared" si="12"/>
+        <v>5</v>
+      </c>
+      <c r="K18" s="21">
+        <f t="shared" si="12"/>
+        <v>6.75</v>
+      </c>
+      <c r="L18" s="21">
+        <f t="shared" si="12"/>
+        <v>9</v>
+      </c>
+      <c r="M18" s="21">
+        <f t="shared" si="12"/>
+        <v>11.75</v>
+      </c>
+      <c r="N18" s="21">
+        <f t="shared" si="12"/>
+        <v>15</v>
+      </c>
+      <c r="O18" s="21">
+        <f t="shared" si="12"/>
+        <v>18.75</v>
+      </c>
+      <c r="P18" s="21">
+        <f t="shared" si="12"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="2:16">
+      <c r="B19" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C19" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="D19" s="21">
+        <f>D21^2+D21-3</f>
+        <v>3</v>
+      </c>
+      <c r="E19" s="21">
+        <f t="shared" ref="E19:P19" si="13">E21^2+E21-3</f>
+        <v>0.75</v>
+      </c>
+      <c r="F19" s="21">
+        <f t="shared" si="13"/>
+        <v>-1</v>
+      </c>
+      <c r="G19" s="21">
+        <f t="shared" si="13"/>
+        <v>-2.25</v>
+      </c>
+      <c r="H19" s="21">
+        <f t="shared" si="13"/>
+        <v>-3</v>
+      </c>
+      <c r="I19" s="21">
+        <f t="shared" si="13"/>
+        <v>-3.25</v>
+      </c>
+      <c r="J19" s="21">
+        <f t="shared" si="13"/>
+        <v>-3</v>
+      </c>
+      <c r="K19" s="21">
+        <f t="shared" si="13"/>
+        <v>-2.25</v>
+      </c>
+      <c r="L19" s="21">
+        <f t="shared" si="13"/>
+        <v>-1</v>
+      </c>
+      <c r="M19" s="21">
+        <f t="shared" si="13"/>
+        <v>0.75</v>
+      </c>
+      <c r="N19" s="21">
+        <f t="shared" si="13"/>
+        <v>3</v>
+      </c>
+      <c r="O19" s="21">
+        <f t="shared" si="13"/>
+        <v>5.75</v>
+      </c>
+      <c r="P19" s="21">
+        <f t="shared" si="13"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="2:16">
+      <c r="B20" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C20" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="D20" s="21">
+        <f>D21^2</f>
+        <v>9</v>
+      </c>
+      <c r="E20" s="21">
+        <f t="shared" ref="E20:P20" si="14">E21^2</f>
+        <v>6.25</v>
+      </c>
+      <c r="F20" s="21">
+        <f t="shared" si="14"/>
+        <v>4</v>
+      </c>
+      <c r="G20" s="21">
+        <f t="shared" si="14"/>
+        <v>2.25</v>
+      </c>
+      <c r="H20" s="21">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="I20" s="21">
+        <f t="shared" si="14"/>
+        <v>0.25</v>
+      </c>
+      <c r="J20" s="21">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="K20" s="21">
+        <f t="shared" si="14"/>
+        <v>0.25</v>
+      </c>
+      <c r="L20" s="21">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="M20" s="21">
+        <f t="shared" si="14"/>
+        <v>2.25</v>
+      </c>
+      <c r="N20" s="21">
+        <f t="shared" si="14"/>
+        <v>4</v>
+      </c>
+      <c r="O20" s="21">
+        <f t="shared" si="14"/>
+        <v>6.25</v>
+      </c>
+      <c r="P20" s="21">
+        <f t="shared" si="14"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="2:16">
+      <c r="B21" s="9"/>
+      <c r="C21" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="D21" s="22">
+        <v>-3</v>
+      </c>
+      <c r="E21" s="22">
+        <v>-2.5</v>
+      </c>
+      <c r="F21" s="22">
+        <v>-2</v>
+      </c>
+      <c r="G21" s="22">
+        <v>-1.5</v>
+      </c>
+      <c r="H21" s="22">
+        <v>-1</v>
+      </c>
+      <c r="I21" s="22">
+        <v>-0.5</v>
+      </c>
+      <c r="J21" s="22">
+        <v>0</v>
+      </c>
+      <c r="K21" s="22">
+        <v>0.5</v>
+      </c>
+      <c r="L21" s="22">
+        <v>1</v>
+      </c>
+      <c r="M21" s="22">
+        <v>1.5</v>
+      </c>
+      <c r="N21" s="22">
+        <v>2</v>
+      </c>
+      <c r="O21" s="22">
+        <v>2.5</v>
+      </c>
+      <c r="P21" s="22">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/issues+history/通过多个点绘制函数图像.xlsx
+++ b/issues+history/通过多个点绘制函数图像.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11012"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D4F11F2-3618-9B4A-A1D7-306E41447FE3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8BDDB33-8EDC-D64E-9F45-34FBB5322020}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="20480" windowHeight="12300" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7851,7 +7851,7 @@
   <dimension ref="B2:P21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="R21" sqref="R21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
@@ -7859,19 +7859,19 @@
     <col min="1" max="1" width="1.5" customWidth="1"/>
     <col min="2" max="2" width="20.83203125" customWidth="1"/>
     <col min="3" max="3" width="1.83203125" customWidth="1"/>
-    <col min="4" max="4" width="8.33203125" customWidth="1"/>
-    <col min="5" max="5" width="7.1640625" customWidth="1"/>
-    <col min="6" max="6" width="5.5" customWidth="1"/>
+    <col min="4" max="4" width="5.5" customWidth="1"/>
+    <col min="5" max="5" width="5.83203125" customWidth="1"/>
+    <col min="6" max="6" width="3.83203125" customWidth="1"/>
     <col min="7" max="7" width="4.83203125" customWidth="1"/>
-    <col min="8" max="8" width="4.33203125" customWidth="1"/>
+    <col min="8" max="8" width="3.6640625" customWidth="1"/>
     <col min="9" max="9" width="4.83203125" customWidth="1"/>
     <col min="10" max="10" width="3.1640625" customWidth="1"/>
     <col min="11" max="11" width="4.83203125" customWidth="1"/>
-    <col min="12" max="12" width="4.5" customWidth="1"/>
+    <col min="12" max="12" width="3.5" customWidth="1"/>
     <col min="13" max="13" width="4.83203125" customWidth="1"/>
-    <col min="14" max="14" width="5.6640625" customWidth="1"/>
-    <col min="15" max="15" width="7.1640625" customWidth="1"/>
-    <col min="16" max="16" width="9" customWidth="1"/>
+    <col min="14" max="14" width="3" customWidth="1"/>
+    <col min="15" max="15" width="5.83203125" customWidth="1"/>
+    <col min="16" max="16" width="3.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:16">
@@ -8002,20 +8002,20 @@
         <v>1</v>
       </c>
       <c r="D4" s="21">
-        <f>D20^2*(D20+1)^2*(D20-1)^2*(D20-2)^2</f>
-        <v>25401600</v>
+        <f>D21^2*(D21+1)^2*(D21-1)^2*(D21-2)^2</f>
+        <v>14400</v>
       </c>
       <c r="E4" s="21">
-        <f t="shared" ref="E4:P4" si="2">E20^2*(E20+1)^2*(E20-1)^2*(E20-2)^2</f>
-        <v>1022192.0871734619</v>
+        <f t="shared" ref="E4:O4" si="2">E21^2*(E21+1)^2*(E21-1)^2*(E21-2)^2</f>
+        <v>3488.37890625</v>
       </c>
       <c r="F4" s="21">
         <f t="shared" si="2"/>
-        <v>14400</v>
+        <v>576</v>
       </c>
       <c r="G4" s="21">
         <f t="shared" si="2"/>
-        <v>5.2219390869140625</v>
+        <v>43.06640625</v>
       </c>
       <c r="H4" s="21">
         <f t="shared" si="2"/>
@@ -8023,7 +8023,7 @@
       </c>
       <c r="I4" s="21">
         <f t="shared" si="2"/>
-        <v>0.1682281494140625</v>
+        <v>0.87890625</v>
       </c>
       <c r="J4" s="21">
         <f t="shared" si="2"/>
@@ -8031,7 +8031,7 @@
       </c>
       <c r="K4" s="21">
         <f t="shared" si="2"/>
-        <v>0.1682281494140625</v>
+        <v>0.31640625</v>
       </c>
       <c r="L4" s="21">
         <f t="shared" si="2"/>
@@ -8039,19 +8039,19 @@
       </c>
       <c r="M4" s="21">
         <f t="shared" si="2"/>
-        <v>5.2219390869140625</v>
+        <v>0.87890625</v>
       </c>
       <c r="N4" s="21">
         <f t="shared" si="2"/>
-        <v>14400</v>
+        <v>0</v>
       </c>
       <c r="O4" s="21">
         <f t="shared" si="2"/>
-        <v>1022192.0871734619</v>
+        <v>43.06640625</v>
       </c>
       <c r="P4" s="21">
-        <f t="shared" si="2"/>
-        <v>25401600</v>
+        <f>P21^2*(P21+1)^2*(P21-1)^2*(P21-2)^2</f>
+        <v>576</v>
       </c>
     </row>
     <row r="5" spans="2:16">
@@ -8637,55 +8637,55 @@
         <v>1</v>
       </c>
       <c r="D17" s="21">
-        <f>2*D21^2+3*D21+5</f>
+        <f t="shared" ref="D17:P17" si="12">2*D21^2+3*D21+5</f>
         <v>14</v>
       </c>
       <c r="E17" s="21">
-        <f>2*E21^2+3*E21+5</f>
+        <f t="shared" si="12"/>
         <v>10</v>
       </c>
       <c r="F17" s="21">
-        <f>2*F21^2+3*F21+5</f>
+        <f t="shared" si="12"/>
         <v>7</v>
       </c>
       <c r="G17" s="21">
-        <f>2*G21^2+3*G21+5</f>
+        <f t="shared" si="12"/>
         <v>5</v>
       </c>
       <c r="H17" s="21">
-        <f>2*H21^2+3*H21+5</f>
+        <f t="shared" si="12"/>
         <v>4</v>
       </c>
       <c r="I17" s="21">
-        <f>2*I21^2+3*I21+5</f>
+        <f t="shared" si="12"/>
         <v>4</v>
       </c>
       <c r="J17" s="21">
-        <f>2*J21^2+3*J21+5</f>
+        <f t="shared" si="12"/>
         <v>5</v>
       </c>
       <c r="K17" s="21">
-        <f>2*K21^2+3*K21+5</f>
+        <f t="shared" si="12"/>
         <v>7</v>
       </c>
       <c r="L17" s="21">
-        <f>2*L21^2+3*L21+5</f>
+        <f t="shared" si="12"/>
         <v>10</v>
       </c>
       <c r="M17" s="21">
-        <f>2*M21^2+3*M21+5</f>
+        <f t="shared" si="12"/>
         <v>14</v>
       </c>
       <c r="N17" s="21">
-        <f>2*N21^2+3*N21+5</f>
+        <f t="shared" si="12"/>
         <v>19</v>
       </c>
       <c r="O17" s="21">
-        <f>2*O21^2+3*O21+5</f>
+        <f t="shared" si="12"/>
         <v>25</v>
       </c>
       <c r="P17" s="21">
-        <f>2*P21^2+3*P21+5</f>
+        <f t="shared" si="12"/>
         <v>32</v>
       </c>
     </row>
@@ -8701,51 +8701,51 @@
         <v>5</v>
       </c>
       <c r="E18" s="21">
-        <f t="shared" ref="E18:P18" si="12">E21^2+3*E21+5</f>
+        <f t="shared" ref="E18:P18" si="13">E21^2+3*E21+5</f>
         <v>3.75</v>
       </c>
       <c r="F18" s="21">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>3</v>
       </c>
       <c r="G18" s="21">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>2.75</v>
       </c>
       <c r="H18" s="21">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>3</v>
       </c>
       <c r="I18" s="21">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>3.75</v>
       </c>
       <c r="J18" s="21">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>5</v>
       </c>
       <c r="K18" s="21">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>6.75</v>
       </c>
       <c r="L18" s="21">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>9</v>
       </c>
       <c r="M18" s="21">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>11.75</v>
       </c>
       <c r="N18" s="21">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>15</v>
       </c>
       <c r="O18" s="21">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>18.75</v>
       </c>
       <c r="P18" s="21">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>23</v>
       </c>
     </row>
@@ -8761,51 +8761,51 @@
         <v>3</v>
       </c>
       <c r="E19" s="21">
-        <f t="shared" ref="E19:P19" si="13">E21^2+E21-3</f>
+        <f t="shared" ref="E19:P19" si="14">E21^2+E21-3</f>
         <v>0.75</v>
       </c>
       <c r="F19" s="21">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>-1</v>
       </c>
       <c r="G19" s="21">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>-2.25</v>
       </c>
       <c r="H19" s="21">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>-3</v>
       </c>
       <c r="I19" s="21">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>-3.25</v>
       </c>
       <c r="J19" s="21">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>-3</v>
       </c>
       <c r="K19" s="21">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>-2.25</v>
       </c>
       <c r="L19" s="21">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>-1</v>
       </c>
       <c r="M19" s="21">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.75</v>
       </c>
       <c r="N19" s="21">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>3</v>
       </c>
       <c r="O19" s="21">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>5.75</v>
       </c>
       <c r="P19" s="21">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>9</v>
       </c>
     </row>
@@ -8821,51 +8821,51 @@
         <v>9</v>
       </c>
       <c r="E20" s="21">
-        <f t="shared" ref="E20:P20" si="14">E21^2</f>
+        <f t="shared" ref="E20:P20" si="15">E21^2</f>
         <v>6.25</v>
       </c>
       <c r="F20" s="21">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>4</v>
       </c>
       <c r="G20" s="21">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>2.25</v>
       </c>
       <c r="H20" s="21">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="I20" s="21">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.25</v>
       </c>
       <c r="J20" s="21">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="K20" s="21">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.25</v>
       </c>
       <c r="L20" s="21">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="M20" s="21">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>2.25</v>
       </c>
       <c r="N20" s="21">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>4</v>
       </c>
       <c r="O20" s="21">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>6.25</v>
       </c>
       <c r="P20" s="21">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>9</v>
       </c>
     </row>
